--- a/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/G02-INGRESO DE INVERSIONES ABRIL 2020.xlsx
+++ b/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/G02-INGRESO DE INVERSIONES ABRIL 2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dtesoreria\Documents\ESTRUCTURAS BIESS INVERSIONES\G02 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/git/rp_c/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{633E5487-975A-471B-BD73-BE506BA2285D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66140A81-9F86-EA42-8FEE-69AF44C48ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G02" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="971">
   <si>
     <t>Número de Registro</t>
   </si>
@@ -3475,94 +3475,13 @@
     <t>0</t>
   </si>
   <si>
-    <t>8371388110</t>
-  </si>
-  <si>
-    <t>0990553963001</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>8.25</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
     <t>9.25</t>
   </si>
   <si>
-    <t>7.85</t>
-  </si>
-  <si>
-    <t>8.30</t>
-  </si>
-  <si>
-    <t> 0190155722001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2759 BSD03 </t>
-  </si>
-  <si>
-    <t>8378248310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2501 BSD29 </t>
-  </si>
-  <si>
-    <t>2019 BSD02</t>
-  </si>
-  <si>
-    <t>1818 BSD09</t>
-  </si>
-  <si>
-    <t>1902 BSD02</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>7.30</t>
-  </si>
-  <si>
     <t>6.90</t>
   </si>
   <si>
-    <t>6.80</t>
-  </si>
-  <si>
-    <t>6.70</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>8.90</t>
-  </si>
-  <si>
     <t>30/04/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2500 BSD28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2442 BSD03 </t>
-  </si>
-  <si>
-    <t>2100 BSD20</t>
-  </si>
-  <si>
-    <t>2325  BSD04</t>
-  </si>
-  <si>
-    <t>2089 BSD09</t>
   </si>
   <si>
     <t xml:space="preserve"> 3069 BSD05</t>
@@ -3764,7 +3683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3786,9 +3705,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
@@ -3829,14 +3745,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3887,20 +3805,48 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BFC8B258-C94F-4A48-972F-C6FAE22DA8E9}"/>
   </cellStyles>
   <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -3927,6 +3873,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -3966,6 +3918,15 @@
       </font>
       <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -4026,57 +3987,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -4172,8 +4082,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla5" displayName="Tabla5" ref="A6:V33" tableType="xml" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A6:V33" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla5" displayName="Tabla5" ref="A6:V10" tableType="xml" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A6:V10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="NumeroRegistro" name="Número de Registro" dataDxfId="21">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/@NumeroRegistro" xmlDataType="int"/>
@@ -4181,64 +4091,64 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="Tipoidentificacionemisor" name="Tipo de identificación del emisor" dataDxfId="20">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Tipoidentificacionemisor" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Identificaciondelemisor" name="Identificación del emisor" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="Identificaciondelemisor" name="Identificación del emisor" dataDxfId="19">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Identificaciondelemisor" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="NumerodelInstrumento" name="Número del Instrumento" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="NumerodelInstrumento" name="Número del Instrumento" dataDxfId="18">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/NumerodelInstrumento" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="Tipodeinstrumento" name="Tipo de instrumento" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="Tipodeinstrumento" name="Tipo de instrumento" dataDxfId="17">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Tipodeinstrumento" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="TipodeRenta" name="Tipo de Renta" dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="TipodeRenta" name="Tipo de Renta" dataDxfId="16">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/TipodeRenta" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Fechadeemision" name="Fecha de emisión (dd/mm/aaaa)" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="Fechadeemision" name="Fecha de emisión (dd/mm/aaaa)" dataDxfId="15">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Fechadeemision" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="Fechadecompra" name="Fecha de compra (dd/mm/aaaa)" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="Fechadecompra" name="Fecha de compra (dd/mm/aaaa)" dataDxfId="14">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Fechadecompra" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="Fechadevencimiento" name="Fecha de vencimiento (dd/mm/aaaa)" dataDxfId="7">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="Fechadevencimiento" name="Fecha de vencimiento (dd/mm/aaaa)" dataDxfId="13">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Fechadevencimiento" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="Tasanominal" name="Tasa nominal" dataDxfId="6">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="Tasanominal" name="Tasa nominal" dataDxfId="12">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Tasanominal" xmlDataType="float"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="Plazopactado" name="Plazo pactado" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="Plazopactado" name="Plazo pactado" dataDxfId="11">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Plazopactado" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="Valornominal" name="Valor nominal " dataDxfId="4">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="Valornominal" name="Valor nominal " dataDxfId="10">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Valornominal" xmlDataType="float"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="Numeroaccionescompradas" name="Número de Acciones Compradas" dataDxfId="18">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="Numeroaccionescompradas" name="Número de Acciones Compradas" dataDxfId="9">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Numeroaccionescompradas" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="Preciocompraaccion" name="Precio de Compra por Acción" dataDxfId="17">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="Preciocompraaccion" name="Precio de Compra por Acción" dataDxfId="8">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Preciocompraaccion" xmlDataType="float"/>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="Valordecompra" name="Valor de compra" dataDxfId="3">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="Valordecompra" name="Valor de compra" dataDxfId="7">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Valordecompra" xmlDataType="float"/>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="Periodopago" name="Periodo de pago" dataDxfId="2">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="Periodopago" name="Periodo de pago" dataDxfId="6">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Periodopago" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="Amortizacioncapital" name="Amortización Capital" dataDxfId="1">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="Amortizacioncapital" name="Amortización Capital" dataDxfId="5">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Amortizacioncapital" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="Amortizacioninteres" name="Amortización Interés" dataDxfId="0">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="Amortizacioninteres" name="Amortización Interés" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Amortizacioninteres" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="Basetasacapital" name="Base para Tasa Capital" dataDxfId="16">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="Basetasacapital" name="Base para Tasa Capital" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Basetasacapital" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="Basetasainteres" name="Base para Tasa Interés" dataDxfId="15">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="Basetasainteres" name="Base para Tasa Interés" dataDxfId="2">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Basetasainteres" xmlDataType="int"/>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="Periodogracia" name="Periodo de Gracia" dataDxfId="14">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="Periodogracia" name="Periodo de Gracia" dataDxfId="1">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/Periodogracia" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="EstadoRegistro" name="Estado Registro" dataDxfId="13">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="EstadoRegistro" name="Estado Registro" dataDxfId="0">
       <xmlColumnPr mapId="2" xpath="/REGISTROS/Detalle/Registro/EstadoRegistro" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4534,43 +4444,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V33"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="19" style="11" customWidth="1"/>
     <col min="3" max="3" width="22" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="11" customWidth="1"/>
     <col min="10" max="11" width="13" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="11" customWidth="1"/>
     <col min="13" max="13" width="15" style="11" customWidth="1"/>
     <col min="14" max="17" width="13" style="11" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="11" customWidth="1"/>
     <col min="21" max="22" width="13" style="11" customWidth="1"/>
-    <col min="23" max="16384" width="10.85546875" style="11"/>
+    <col min="23" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4584,103 +4494,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>17</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>990</v>
+      <c r="C3" s="30" t="s">
+        <v>968</v>
       </c>
       <c r="D3" s="2">
         <f>COUNT(Tabla5[Número de Registro])+1</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>957</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="32" t="s">
         <v>958</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="J6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="M6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="R6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="33" t="s">
+      <c r="T6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="33" t="s">
+      <c r="U6" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="V6" s="33" t="s">
+      <c r="V6" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="35">
-        <v>273583</v>
+      <c r="C7" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" s="33">
+        <v>275194</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>904</v>
@@ -4688,67 +4598,67 @@
       <c r="F7" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="G7" s="54">
-        <v>43896</v>
-      </c>
-      <c r="H7" s="54">
-        <v>43896</v>
-      </c>
-      <c r="I7" s="54">
-        <v>44256</v>
+      <c r="G7" s="35">
+        <v>43934</v>
+      </c>
+      <c r="H7" s="35">
+        <v>43934</v>
+      </c>
+      <c r="I7" s="35">
+        <v>44204</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>983</v>
-      </c>
-      <c r="K7" s="35">
-        <v>360</v>
-      </c>
-      <c r="L7" s="29">
-        <v>1800000</v>
+        <v>967</v>
+      </c>
+      <c r="K7" s="33">
+        <v>270</v>
+      </c>
+      <c r="L7" s="28">
+        <v>3000000</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="28">
         <v>0</v>
       </c>
-      <c r="O7" s="29">
-        <v>1800000</v>
-      </c>
-      <c r="P7" s="35">
-        <v>360</v>
-      </c>
-      <c r="Q7" s="35">
-        <v>360</v>
-      </c>
-      <c r="R7" s="35">
-        <v>360</v>
-      </c>
-      <c r="S7" s="15" t="s">
+      <c r="O7" s="28">
+        <v>3000000</v>
+      </c>
+      <c r="P7" s="33">
+        <v>270</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>270</v>
+      </c>
+      <c r="R7" s="33">
+        <v>270</v>
+      </c>
+      <c r="S7" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="T7" s="15" t="s">
+      <c r="T7" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="U7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>977</v>
+      <c r="C8" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="33">
+        <v>275479</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>904</v>
@@ -4756,67 +4666,67 @@
       <c r="F8" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="G8" s="54">
-        <v>43917</v>
-      </c>
-      <c r="H8" s="54">
-        <v>43917</v>
-      </c>
-      <c r="I8" s="54">
-        <v>44098</v>
+      <c r="G8" s="35">
+        <v>43943</v>
+      </c>
+      <c r="H8" s="35">
+        <v>43943</v>
+      </c>
+      <c r="I8" s="35">
+        <v>44214</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>984</v>
-      </c>
-      <c r="K8" s="35">
-        <v>181</v>
-      </c>
-      <c r="L8" s="29">
-        <v>1000000</v>
+        <v>967</v>
+      </c>
+      <c r="K8" s="33">
+        <v>271</v>
+      </c>
+      <c r="L8" s="28">
+        <v>500000</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="28">
         <v>0</v>
       </c>
-      <c r="O8" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="P8" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q8" s="35">
-        <v>181</v>
-      </c>
-      <c r="R8" s="35">
-        <v>181</v>
-      </c>
-      <c r="S8" s="18" t="s">
+      <c r="O8" s="28">
+        <v>500000</v>
+      </c>
+      <c r="P8" s="33">
+        <v>271</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>271</v>
+      </c>
+      <c r="R8" s="33">
+        <v>271</v>
+      </c>
+      <c r="S8" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="T8" s="18" t="s">
+      <c r="T8" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="U8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>720</v>
-      </c>
-      <c r="D9" s="35">
-        <v>274329</v>
+      <c r="C9" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="33">
+        <v>568287</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>904</v>
@@ -4824,1684 +4734,120 @@
       <c r="F9" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="G9" s="54">
-        <v>43909</v>
-      </c>
-      <c r="H9" s="54">
-        <v>43909</v>
-      </c>
-      <c r="I9" s="54">
-        <v>44090</v>
+      <c r="G9" s="35">
+        <v>43927</v>
+      </c>
+      <c r="H9" s="35">
+        <v>43927</v>
+      </c>
+      <c r="I9" s="35">
+        <v>44109</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>985</v>
-      </c>
-      <c r="K9" s="35">
-        <v>181</v>
-      </c>
-      <c r="L9" s="29">
-        <v>1000000</v>
+        <v>970</v>
+      </c>
+      <c r="K9" s="33">
+        <v>182</v>
+      </c>
+      <c r="L9" s="28">
+        <v>517848.61</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="28">
         <v>0</v>
       </c>
-      <c r="O9" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="P9" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q9" s="35">
-        <v>181</v>
-      </c>
-      <c r="R9" s="35">
-        <v>181</v>
-      </c>
-      <c r="S9" s="18" t="s">
+      <c r="O9" s="28">
+        <v>517848.61</v>
+      </c>
+      <c r="P9" s="33">
+        <v>182</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>182</v>
+      </c>
+      <c r="R9" s="33">
+        <v>182</v>
+      </c>
+      <c r="S9" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="U9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>966</v>
+      <c r="C10" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>969</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>904</v>
+        <v>929</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>955</v>
       </c>
-      <c r="G10" s="54">
-        <v>43802</v>
-      </c>
-      <c r="H10" s="54">
-        <v>43802</v>
-      </c>
-      <c r="I10" s="54">
-        <v>43985</v>
+      <c r="G10" s="35">
+        <v>43930</v>
+      </c>
+      <c r="H10" s="35">
+        <v>43930</v>
+      </c>
+      <c r="I10" s="35">
+        <v>44105</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>969</v>
-      </c>
-      <c r="K10" s="35">
-        <v>183</v>
-      </c>
-      <c r="L10" s="29">
-        <v>36389.589999999997</v>
+        <v>966</v>
+      </c>
+      <c r="K10" s="33">
+        <v>175</v>
+      </c>
+      <c r="L10" s="28">
+        <v>949735.3</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>965</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="28">
         <v>0</v>
       </c>
-      <c r="O10" s="29">
-        <v>36389.589999999997</v>
-      </c>
-      <c r="P10" s="35">
-        <v>183</v>
-      </c>
-      <c r="Q10" s="35">
-        <v>183</v>
-      </c>
-      <c r="R10" s="35">
-        <v>183</v>
-      </c>
-      <c r="S10" s="18" t="s">
+      <c r="O10" s="28">
+        <v>992440.41</v>
+      </c>
+      <c r="P10" s="33">
+        <v>175</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>175</v>
+      </c>
+      <c r="R10" s="33">
+        <v>175</v>
+      </c>
+      <c r="S10" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="17" t="s">
         <v>961</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="U10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>978</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G11" s="54">
-        <v>43866</v>
-      </c>
-      <c r="H11" s="54">
-        <v>43866</v>
-      </c>
-      <c r="I11" s="54">
-        <v>43957</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>968</v>
-      </c>
-      <c r="K11" s="35">
-        <v>91</v>
-      </c>
-      <c r="L11" s="29">
-        <v>47351.42</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N11" s="29">
-        <v>0</v>
-      </c>
-      <c r="O11" s="29">
-        <v>47351.42</v>
-      </c>
-      <c r="P11" s="35">
-        <v>91</v>
-      </c>
-      <c r="Q11" s="35">
-        <v>91</v>
-      </c>
-      <c r="R11" s="35">
-        <v>91</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>991</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G12" s="54">
-        <v>43909</v>
-      </c>
-      <c r="H12" s="54">
-        <v>43909</v>
-      </c>
-      <c r="I12" s="54">
-        <v>44090</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>986</v>
-      </c>
-      <c r="K12" s="35">
-        <v>181</v>
-      </c>
-      <c r="L12" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N12" s="29">
-        <v>0</v>
-      </c>
-      <c r="O12" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="P12" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q12" s="35">
-        <v>181</v>
-      </c>
-      <c r="R12" s="35">
-        <v>181</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
-        <v>7</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>979</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G13" s="54">
-        <v>43909</v>
-      </c>
-      <c r="H13" s="54">
-        <v>43909</v>
-      </c>
-      <c r="I13" s="54">
-        <v>44090</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>986</v>
-      </c>
-      <c r="K13" s="35">
-        <v>181</v>
-      </c>
-      <c r="L13" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N13" s="29">
-        <v>0</v>
-      </c>
-      <c r="O13" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="P13" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="35">
-        <v>181</v>
-      </c>
-      <c r="R13" s="35">
-        <v>181</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
-        <v>8</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>976</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>992</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G14" s="54">
-        <v>43908</v>
-      </c>
-      <c r="H14" s="54">
-        <v>43908</v>
-      </c>
-      <c r="I14" s="54">
-        <v>44089</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="K14" s="35">
-        <v>181</v>
-      </c>
-      <c r="L14" s="29">
-        <v>750000</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N14" s="29">
-        <v>0</v>
-      </c>
-      <c r="O14" s="29">
-        <v>750000</v>
-      </c>
-      <c r="P14" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="35">
-        <v>181</v>
-      </c>
-      <c r="R14" s="35">
-        <v>181</v>
-      </c>
-      <c r="S14" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>9</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>993</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G15" s="54">
-        <v>43895</v>
-      </c>
-      <c r="H15" s="54">
-        <v>43895</v>
-      </c>
-      <c r="I15" s="54">
-        <v>44076</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="K15" s="35">
-        <v>181</v>
-      </c>
-      <c r="L15" s="29">
-        <v>150000</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N15" s="29">
-        <v>0</v>
-      </c>
-      <c r="O15" s="29">
-        <v>150000</v>
-      </c>
-      <c r="P15" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q15" s="35">
-        <v>181</v>
-      </c>
-      <c r="R15" s="35">
-        <v>181</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>10</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G16" s="54">
-        <v>43903</v>
-      </c>
-      <c r="H16" s="54">
-        <v>43903</v>
-      </c>
-      <c r="I16" s="54">
-        <v>44084</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>970</v>
-      </c>
-      <c r="K16" s="35">
-        <v>181</v>
-      </c>
-      <c r="L16" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N16" s="29">
-        <v>0</v>
-      </c>
-      <c r="O16" s="29">
-        <v>1000000</v>
-      </c>
-      <c r="P16" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q16" s="35">
-        <v>181</v>
-      </c>
-      <c r="R16" s="35">
-        <v>181</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
-        <v>11</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>995</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G17" s="54">
-        <v>43895</v>
-      </c>
-      <c r="H17" s="54">
-        <v>43895</v>
-      </c>
-      <c r="I17" s="54">
-        <v>44076</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="K17" s="35">
-        <v>181</v>
-      </c>
-      <c r="L17" s="29">
-        <v>300000</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N17" s="29">
-        <v>0</v>
-      </c>
-      <c r="O17" s="29">
-        <v>300000</v>
-      </c>
-      <c r="P17" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q17" s="35">
-        <v>181</v>
-      </c>
-      <c r="R17" s="35">
-        <v>181</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D18" s="35">
-        <v>273773</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G18" s="54">
-        <v>43900</v>
-      </c>
-      <c r="H18" s="54">
-        <v>43900</v>
-      </c>
-      <c r="I18" s="54">
-        <v>44081</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>987</v>
-      </c>
-      <c r="K18" s="35">
-        <v>181</v>
-      </c>
-      <c r="L18" s="29">
-        <v>2700000</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N18" s="29">
-        <v>0</v>
-      </c>
-      <c r="O18" s="29">
-        <v>2700000</v>
-      </c>
-      <c r="P18" s="35">
-        <v>181</v>
-      </c>
-      <c r="Q18" s="35">
-        <v>181</v>
-      </c>
-      <c r="R18" s="35">
-        <v>181</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D19" s="35">
-        <v>275194</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G19" s="54">
-        <v>43934</v>
-      </c>
-      <c r="H19" s="54">
-        <v>43934</v>
-      </c>
-      <c r="I19" s="54">
-        <v>44204</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>985</v>
-      </c>
-      <c r="K19" s="35">
-        <v>270</v>
-      </c>
-      <c r="L19" s="29">
-        <v>3000000</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N19" s="29">
-        <v>0</v>
-      </c>
-      <c r="O19" s="29">
-        <v>3000000</v>
-      </c>
-      <c r="P19" s="35">
-        <v>270</v>
-      </c>
-      <c r="Q19" s="35">
-        <v>270</v>
-      </c>
-      <c r="R19" s="35">
-        <v>270</v>
-      </c>
-      <c r="S19" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" s="35">
-        <v>275479</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G20" s="54">
-        <v>43943</v>
-      </c>
-      <c r="H20" s="54">
-        <v>43943</v>
-      </c>
-      <c r="I20" s="54">
-        <v>44214</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>985</v>
-      </c>
-      <c r="K20" s="35">
-        <v>271</v>
-      </c>
-      <c r="L20" s="29">
-        <v>500000</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N20" s="29">
-        <v>0</v>
-      </c>
-      <c r="O20" s="29">
-        <v>500000</v>
-      </c>
-      <c r="P20" s="35">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="35">
-        <v>271</v>
-      </c>
-      <c r="R20" s="35">
-        <v>271</v>
-      </c>
-      <c r="S20" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T20" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="35">
-        <v>568287</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G21" s="54">
-        <v>43927</v>
-      </c>
-      <c r="H21" s="54">
-        <v>43927</v>
-      </c>
-      <c r="I21" s="54">
-        <v>44109</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>997</v>
-      </c>
-      <c r="K21" s="35">
-        <v>182</v>
-      </c>
-      <c r="L21" s="29">
-        <v>517848.61</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N21" s="29">
-        <v>0</v>
-      </c>
-      <c r="O21" s="29">
-        <v>517848.61</v>
-      </c>
-      <c r="P21" s="35">
-        <v>182</v>
-      </c>
-      <c r="Q21" s="35">
-        <v>182</v>
-      </c>
-      <c r="R21" s="35">
-        <v>182</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T21" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
-        <v>16</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>980</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G22" s="54">
-        <v>43895</v>
-      </c>
-      <c r="H22" s="54">
-        <v>43895</v>
-      </c>
-      <c r="I22" s="54">
-        <v>44075</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="K22" s="35">
-        <v>180</v>
-      </c>
-      <c r="L22" s="29">
-        <v>423195.45</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N22" s="29">
-        <v>0</v>
-      </c>
-      <c r="O22" s="29">
-        <v>442239.25</v>
-      </c>
-      <c r="P22" s="35">
-        <v>180</v>
-      </c>
-      <c r="Q22" s="35">
-        <v>180</v>
-      </c>
-      <c r="R22" s="35">
-        <v>180</v>
-      </c>
-      <c r="S22" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
-        <v>17</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="35">
-        <v>274726</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G23" s="54">
-        <v>43920</v>
-      </c>
-      <c r="H23" s="54">
-        <v>43920</v>
-      </c>
-      <c r="I23" s="54">
-        <v>44102</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>988</v>
-      </c>
-      <c r="K23" s="35">
-        <v>182</v>
-      </c>
-      <c r="L23" s="29">
-        <v>1551016.75</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N23" s="29">
-        <v>0</v>
-      </c>
-      <c r="O23" s="29">
-        <v>1621588.01</v>
-      </c>
-      <c r="P23" s="35">
-        <v>182</v>
-      </c>
-      <c r="Q23" s="35">
-        <v>182</v>
-      </c>
-      <c r="R23" s="35">
-        <v>182</v>
-      </c>
-      <c r="S23" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
-        <v>18</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>996</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G24" s="54">
-        <v>43930</v>
-      </c>
-      <c r="H24" s="54">
-        <v>43930</v>
-      </c>
-      <c r="I24" s="54">
-        <v>44105</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>973</v>
-      </c>
-      <c r="K24" s="35">
-        <v>175</v>
-      </c>
-      <c r="L24" s="29">
-        <v>949735.3</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N24" s="29">
-        <v>0</v>
-      </c>
-      <c r="O24" s="29">
-        <v>992440.41</v>
-      </c>
-      <c r="P24" s="35">
-        <v>175</v>
-      </c>
-      <c r="Q24" s="35">
-        <v>175</v>
-      </c>
-      <c r="R24" s="35">
-        <v>175</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
-        <v>19</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>820</v>
-      </c>
-      <c r="D25" s="35">
-        <v>273927</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G25" s="54">
-        <v>43902</v>
-      </c>
-      <c r="H25" s="54">
-        <v>43902</v>
-      </c>
-      <c r="I25" s="54">
-        <v>44020</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>989</v>
-      </c>
-      <c r="K25" s="35">
-        <v>118</v>
-      </c>
-      <c r="L25" s="29">
-        <v>248484.12</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N25" s="29">
-        <v>0</v>
-      </c>
-      <c r="O25" s="29">
-        <v>255732.95</v>
-      </c>
-      <c r="P25" s="35">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="35">
-        <v>118</v>
-      </c>
-      <c r="R25" s="35">
-        <v>118</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
-        <v>20</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>820</v>
-      </c>
-      <c r="D26" s="35">
-        <v>274782</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G26" s="54">
-        <v>43921</v>
-      </c>
-      <c r="H26" s="54">
-        <v>43921</v>
-      </c>
-      <c r="I26" s="54">
-        <v>44099</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>973</v>
-      </c>
-      <c r="K26" s="35">
-        <v>178</v>
-      </c>
-      <c r="L26" s="29">
-        <v>2000000</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N26" s="29">
-        <v>0</v>
-      </c>
-      <c r="O26" s="29">
-        <v>2091472.22</v>
-      </c>
-      <c r="P26" s="35">
-        <v>178</v>
-      </c>
-      <c r="Q26" s="35">
-        <v>178</v>
-      </c>
-      <c r="R26" s="35">
-        <v>178</v>
-      </c>
-      <c r="S26" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
-        <v>21</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="D27" s="35">
-        <v>272436</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>955</v>
-      </c>
-      <c r="G27" s="54">
-        <v>43872</v>
-      </c>
-      <c r="H27" s="54">
-        <v>43872</v>
-      </c>
-      <c r="I27" s="54">
-        <v>44159</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="K27" s="35">
-        <v>287</v>
-      </c>
-      <c r="L27" s="29">
-        <v>187657.60000000001</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N27" s="29">
-        <v>0</v>
-      </c>
-      <c r="O27" s="29">
-        <v>200000</v>
-      </c>
-      <c r="P27" s="35">
-        <v>287</v>
-      </c>
-      <c r="Q27" s="35">
-        <v>287</v>
-      </c>
-      <c r="R27" s="35">
-        <v>287</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
-        <v>22</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>611</v>
-      </c>
-      <c r="D28" s="35">
-        <v>269905</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="G28" s="54">
-        <v>43823</v>
-      </c>
-      <c r="H28" s="54">
-        <v>43823</v>
-      </c>
-      <c r="I28" s="54">
-        <v>44127</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>973</v>
-      </c>
-      <c r="K28" s="35">
-        <v>304</v>
-      </c>
-      <c r="L28" s="29">
-        <v>1631516.44</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N28" s="29">
-        <v>0</v>
-      </c>
-      <c r="O28" s="29">
-        <v>1758956</v>
-      </c>
-      <c r="P28" s="35">
-        <v>304</v>
-      </c>
-      <c r="Q28" s="35">
-        <v>304</v>
-      </c>
-      <c r="R28" s="35">
-        <v>304</v>
-      </c>
-      <c r="S28" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T28" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
-        <v>23</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>731</v>
-      </c>
-      <c r="D29" s="35">
-        <v>272431</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="G29" s="54">
-        <v>43872</v>
-      </c>
-      <c r="H29" s="54">
-        <v>43872</v>
-      </c>
-      <c r="I29" s="54">
-        <v>44146</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="K29" s="35">
-        <v>274</v>
-      </c>
-      <c r="L29" s="29">
-        <v>329321.36</v>
-      </c>
-      <c r="M29" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N29" s="29">
-        <v>0</v>
-      </c>
-      <c r="O29" s="29">
-        <v>350000</v>
-      </c>
-      <c r="P29" s="35">
-        <v>274</v>
-      </c>
-      <c r="Q29" s="35">
-        <v>274</v>
-      </c>
-      <c r="R29" s="35">
-        <v>274</v>
-      </c>
-      <c r="S29" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T29" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U29" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V29" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
-        <v>24</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>967</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>981</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="G30" s="54">
-        <v>43882</v>
-      </c>
-      <c r="H30" s="54">
-        <v>43882</v>
-      </c>
-      <c r="I30" s="54">
-        <v>44239</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="K30" s="35">
-        <v>357</v>
-      </c>
-      <c r="L30" s="29">
-        <v>189289.87</v>
-      </c>
-      <c r="M30" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N30" s="29">
-        <v>0</v>
-      </c>
-      <c r="O30" s="29">
-        <v>204870</v>
-      </c>
-      <c r="P30" s="35">
-        <v>357</v>
-      </c>
-      <c r="Q30" s="35">
-        <v>357</v>
-      </c>
-      <c r="R30" s="35">
-        <v>357</v>
-      </c>
-      <c r="S30" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T30" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U30" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
-        <v>25</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>967</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>982</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="G31" s="54">
-        <v>43888</v>
-      </c>
-      <c r="H31" s="54">
-        <v>43888</v>
-      </c>
-      <c r="I31" s="54">
-        <v>44245</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="K31" s="35">
-        <v>357</v>
-      </c>
-      <c r="L31" s="29">
-        <v>299480.28000000003</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N31" s="29">
-        <v>0</v>
-      </c>
-      <c r="O31" s="29">
-        <v>324130</v>
-      </c>
-      <c r="P31" s="35">
-        <v>357</v>
-      </c>
-      <c r="Q31" s="35">
-        <v>357</v>
-      </c>
-      <c r="R31" s="35">
-        <v>357</v>
-      </c>
-      <c r="S31" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T31" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V31" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
-        <v>26</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>967</v>
-      </c>
-      <c r="D32" s="35">
-        <v>274585</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="G32" s="54">
-        <v>43916</v>
-      </c>
-      <c r="H32" s="54">
-        <v>43916</v>
-      </c>
-      <c r="I32" s="54">
-        <v>44274</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>975</v>
-      </c>
-      <c r="K32" s="35">
-        <v>358</v>
-      </c>
-      <c r="L32" s="29">
-        <v>461877.17</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N32" s="29">
-        <v>0</v>
-      </c>
-      <c r="O32" s="29">
-        <v>500000</v>
-      </c>
-      <c r="P32" s="35">
-        <v>358</v>
-      </c>
-      <c r="Q32" s="35">
-        <v>358</v>
-      </c>
-      <c r="R32" s="35">
-        <v>358</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T32" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U32" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>27</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>812</v>
-      </c>
-      <c r="D33" s="35">
-        <v>269906</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>955</v>
-      </c>
-      <c r="G33" s="54">
-        <v>43823</v>
-      </c>
-      <c r="H33" s="34">
-        <v>43823</v>
-      </c>
-      <c r="I33" s="54">
-        <v>44182</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="K33" s="35">
-        <v>359</v>
-      </c>
-      <c r="L33" s="29">
-        <v>1500308.71</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>965</v>
-      </c>
-      <c r="N33" s="29">
-        <v>0</v>
-      </c>
-      <c r="O33" s="29">
-        <v>1620000</v>
-      </c>
-      <c r="P33" s="35">
-        <v>359</v>
-      </c>
-      <c r="Q33" s="35">
-        <v>359</v>
-      </c>
-      <c r="R33" s="35">
-        <v>359</v>
-      </c>
-      <c r="S33" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="T33" s="18" t="s">
-        <v>961</v>
-      </c>
-      <c r="U33" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="V33" s="17" t="s">
+      <c r="V10" s="16" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6511,24 +4857,24 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <dataValidations xWindow="693" yWindow="456" count="18">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Secuencial que identifica a cada registro" sqref="A7:A33" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la identificación única que tiene el instrumento y es definido por el emisor, este número no se puede repetir en otro instrumento del mismo emisor. " sqref="D7:D33" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la fecha en la que se emite el título o instrumento." sqref="G7:G33" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la fecha de compra del título o instrumento." sqref="H7:H33" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la fecha de vencimiento del título o instrumento. Es la fecha en la que la operación sale de los libros de la entidad. Para el caso de operaciones de balance, por ejemplo bonos o depósitos interbancarios, esta será la fecha pago del principal." sqref="I7:I33" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el valor porcentual con el que consta el instrumento." sqref="J7:J33" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Número de dias que se acordó la inversión." sqref="K7:K33" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el valor monetario del instrumento financiero que se negocia." sqref="L7:L33 N7:O7" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el número de acciones compradas al inicio de la inversión._x000a_ESTE DATO ES INFORMACIÓN DE LA COMPRA" sqref="M7:M33" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el precio de compra del instrumento a la fecha de compra." sqref="N8:N27" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el valor monetario del instrumento financiero que se compra o adquiere." sqref="O8:O27" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El número de dias que se calcula para los pagos del título o del instrumento." sqref="P7:P33" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El periodo de amortización se refiere a la periocidad con la que se recupera el capital de las inversiones realizadas. " sqref="Q7:Q33" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El periodo de amortización se refiere a la periocidad con la que se recupera el interes generado por la Inversiones realizadas. " sqref="R7:R33" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Código de la estructura de “Ingreso de Inversiones”" sqref="A3" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Código asignado por la Superintendencia de Bancos y Seguros al Fondo Complementario Previsional Cerrado._x000a_" sqref="B3" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Fecha de corte de la información enviada por la entidad controlada" sqref="C3" xr:uid="{00000000-0002-0000-0000-000010000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Número de líneas que contiene el archivo incluido el registro de cabecera" sqref="D3" xr:uid="{00000000-0002-0000-0000-000011000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Secuencial que identifica a cada registro" sqref="A7:A10" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la identificación única que tiene el instrumento y es definido por el emisor, este número no se puede repetir en otro instrumento del mismo emisor. " sqref="D7:D10" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la fecha en la que se emite el título o instrumento." sqref="G7:G10" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la fecha de compra del título o instrumento." sqref="H7:H10" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la fecha de vencimiento del título o instrumento. Es la fecha en la que la operación sale de los libros de la entidad. Para el caso de operaciones de balance, por ejemplo bonos o depósitos interbancarios, esta será la fecha pago del principal." sqref="I7:I10" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el valor porcentual con el que consta el instrumento." sqref="J7:J10" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Número de dias que se acordó la inversión." sqref="K7:K10" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el valor monetario del instrumento financiero que se negocia." sqref="L7:L10" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el número de acciones compradas al inicio de la inversión._x000a_ESTE DATO ES INFORMACIÓN DE LA COMPRA" sqref="M7:M10" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el precio de compra del instrumento a la fecha de compra." sqref="N7:N10" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es el valor monetario del instrumento financiero que se compra o adquiere." sqref="O7:O10" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El número de dias que se calcula para los pagos del título o del instrumento." sqref="P7:P10" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El periodo de amortización se refiere a la periocidad con la que se recupera el capital de las inversiones realizadas. " sqref="Q7:Q10" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El periodo de amortización se refiere a la periocidad con la que se recupera el interes generado por la Inversiones realizadas. " sqref="R7:R10" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6543,49 +4889,49 @@
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>S7:S33</xm:sqref>
+          <xm:sqref>S7:S10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Es la base para el calculo de la tasa de interes. Escoger entre las opciones desplegables según corresponda (360 o 365) Tabla: 38 FCPC BASE PARA TASA,consulte los códigos en la hoja de &quot;DATOS&quot;" xr:uid="{00000000-0002-0000-0000-000013000000}">
           <x14:formula1>
             <xm:f>DATOS!$F$2:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T7:T33</xm:sqref>
+          <xm:sqref>T7:T10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Este campo registra el estado del registro. Tabla: 33 FCPC ESTADO DE REGISTRO,consulte los códigos en la hoja de &quot;DATOS&quot;" xr:uid="{00000000-0002-0000-0000-000014000000}">
           <x14:formula1>
             <xm:f>DATOS!$J$2:$J$4</xm:f>
           </x14:formula1>
-          <xm:sqref>V7:V33</xm:sqref>
+          <xm:sqref>V7:V10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Se refiere al tipo de identificación del emisor  _x000a_Tabla: 1 FCPC, TIPO DE IDENTIFICACIÓN,consulte los códigos en la hoja de &quot;DATOS&quot;" xr:uid="{00000000-0002-0000-0000-000015000000}">
           <x14:formula1>
             <xm:f>DATOS!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B33</xm:sqref>
+          <xm:sqref>B7:B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Está definido por la distribución del capital y se divide en renta fija y renta variable.Tabla: 31 FCPC TIPO DE RENTA,consulte los códigos en la hoja de &quot;DATOS&quot;" xr:uid="{00000000-0002-0000-0000-000016000000}">
           <x14:formula1>
             <xm:f>DATOS!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F7:F33</xm:sqref>
+          <xm:sqref>F7:F10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Se identifica el tipo de inversión realizada por la institución. Corresponde al código del tipo al cual pertenece el instrumento._x000a_Tabla: 36 FCPC TIPO DE INSTRUMENTO,consulte los códigos en la hoja de &quot;DATOS&quot;" xr:uid="{00000000-0002-0000-0000-000017000000}">
           <x14:formula1>
             <xm:f>DATOS!$L$2:$L$36</xm:f>
           </x14:formula1>
-          <xm:sqref>E7:E33</xm:sqref>
+          <xm:sqref>E7:E10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Corresponde al número de identificación del emisor Nro. De RUC." xr:uid="{00000000-0002-0000-0000-000018000000}">
           <x14:formula1>
             <xm:f>DATOS!$N$2:$N$428</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C33</xm:sqref>
+          <xm:sqref>C7:C10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escoger entre las opciones desplegables según corresponda (SI o NO)" xr:uid="{00000000-0002-0000-0000-000019000000}">
           <x14:formula1>
             <xm:f>DATOS!$H$2:$H$3</xm:f>
           </x14:formula1>
-          <xm:sqref>U7:U33</xm:sqref>
+          <xm:sqref>U7:U10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6601,56 +4947,56 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" customWidth="1"/>
-    <col min="13" max="13" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" customWidth="1"/>
+    <col min="13" max="13" width="53.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="44" t="s">
         <v>954</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="46" t="s">
         <v>960</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="50" t="s">
         <v>964</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="48" t="s">
         <v>963</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="42" t="s">
         <v>890</v>
       </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="39" t="s">
         <v>868</v>
       </c>
-      <c r="O1" s="40"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="39"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>863</v>
       </c>
@@ -6690,14 +5036,14 @@
       <c r="M2" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="N2" s="24" t="s">
+      <c r="N2" s="23" t="s">
         <v>855</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>865</v>
       </c>
@@ -6737,21 +5083,21 @@
       <c r="M3" s="9" t="s">
         <v>893</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="21" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="8" t="s">
         <v>37</v>
       </c>
@@ -6764,3726 +5110,3726 @@
       <c r="M4" s="9" t="s">
         <v>894</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L5" s="10" t="s">
         <v>895</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>895</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="O5" s="21" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
         <v>896</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>897</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>691</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="21" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
         <v>898</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>899</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="O7" s="22" t="s">
+      <c r="O7" s="21" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
         <v>900</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>901</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="O8" s="22" t="s">
+      <c r="O8" s="21" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L9" s="10" t="s">
         <v>902</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>903</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="O9" s="22" t="s">
+      <c r="O9" s="21" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L10" s="10" t="s">
         <v>904</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>905</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="O10" s="22" t="s">
+      <c r="O10" s="21" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L11" s="10" t="s">
         <v>906</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>907</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="O11" s="22" t="s">
+      <c r="O11" s="21" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L12" s="10" t="s">
         <v>908</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>909</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="O12" s="22" t="s">
+      <c r="O12" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L13" s="10" t="s">
         <v>910</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>911</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="21" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L14" s="10" t="s">
         <v>912</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>913</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="O14" s="22" t="s">
+      <c r="O14" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L15" s="10" t="s">
         <v>914</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>915</v>
       </c>
-      <c r="N15" s="21" t="s">
+      <c r="N15" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L16" s="10" t="s">
         <v>916</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>888</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L17" s="10" t="s">
         <v>918</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>919</v>
       </c>
-      <c r="N17" s="21" t="s">
+      <c r="N17" s="20" t="s">
         <v>803</v>
       </c>
-      <c r="O17" s="22" t="s">
+      <c r="O17" s="21" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="18" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L18" s="10" t="s">
         <v>920</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="21" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L19" s="10" t="s">
         <v>922</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>922</v>
       </c>
-      <c r="N19" s="21" t="s">
+      <c r="N19" s="20" t="s">
         <v>623</v>
       </c>
-      <c r="O19" s="22" t="s">
+      <c r="O19" s="21" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L20" s="10" t="s">
         <v>923</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="O20" s="22" t="s">
+      <c r="O20" s="21" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L21" s="10" t="s">
         <v>925</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>926</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="N21" s="20" t="s">
         <v>266</v>
       </c>
-      <c r="O21" s="22" t="s">
+      <c r="O21" s="21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L22" s="10" t="s">
         <v>927</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>928</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="O22" s="22" t="s">
+      <c r="O22" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L23" s="10" t="s">
         <v>929</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>930</v>
       </c>
-      <c r="N23" s="21" t="s">
+      <c r="N23" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="22" t="s">
+      <c r="O23" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L24" s="10" t="s">
         <v>931</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>931</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="O24" s="22" t="s">
+      <c r="O24" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L25" s="10" t="s">
         <v>932</v>
       </c>
       <c r="M25" s="9" t="s">
         <v>933</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="N25" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L26" s="10" t="s">
         <v>934</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>935</v>
       </c>
-      <c r="N26" s="21" t="s">
+      <c r="N26" s="20" t="s">
         <v>704</v>
       </c>
-      <c r="O26" s="22" t="s">
+      <c r="O26" s="21" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="27" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L27" s="10" t="s">
         <v>936</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="N27" s="21" t="s">
+      <c r="N27" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L28" s="10" t="s">
         <v>938</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>939</v>
       </c>
-      <c r="N28" s="21" t="s">
+      <c r="N28" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="O28" s="22" t="s">
+      <c r="O28" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L29" s="10" t="s">
         <v>940</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>940</v>
       </c>
-      <c r="N29" s="21" t="s">
+      <c r="N29" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="O29" s="22" t="s">
+      <c r="O29" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L30" s="10" t="s">
         <v>941</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>942</v>
       </c>
-      <c r="N30" s="21" t="s">
+      <c r="N30" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="O30" s="22" t="s">
+      <c r="O30" s="21" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L31" s="10" t="s">
         <v>943</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>943</v>
       </c>
-      <c r="N31" s="21" t="s">
+      <c r="N31" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="O31" s="22" t="s">
+      <c r="O31" s="21" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L32" s="10" t="s">
         <v>944</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="N32" s="21" t="s">
+      <c r="N32" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="O32" s="22" t="s">
+      <c r="O32" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L33" s="10" t="s">
         <v>946</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="N33" s="20" t="s">
         <v>765</v>
       </c>
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="21" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L34" s="10" t="s">
         <v>948</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>949</v>
       </c>
-      <c r="N34" s="21" t="s">
+      <c r="N34" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="O34" s="21" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="35" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L35" s="10" t="s">
         <v>950</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="N35" s="21" t="s">
+      <c r="N35" s="20" t="s">
         <v>728</v>
       </c>
-      <c r="O35" s="22" t="s">
+      <c r="O35" s="21" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L36" s="10" t="s">
         <v>952</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="N36" s="21" t="s">
+      <c r="N36" s="20" t="s">
         <v>731</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="O36" s="21" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L37" s="26"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="24" t="s">
+    <row r="37" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L37" s="25"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="O37" s="22" t="s">
+      <c r="O37" s="21" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L38" s="26"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="24" t="s">
+    <row r="38" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L38" s="25"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L39" s="26"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="24" t="s">
+    <row r="39" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L40" s="26"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="24" t="s">
+    <row r="40" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L40" s="25"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="O40" s="22" t="s">
+      <c r="O40" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L41" s="26"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="24" t="s">
+    <row r="41" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L41" s="25"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="O41" s="22" t="s">
+      <c r="O41" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="42" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L42" s="26"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="24" t="s">
+    <row r="42" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L42" s="25"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L43" s="26"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="24" t="s">
+    <row r="43" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L43" s="25"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="23" t="s">
         <v>753</v>
       </c>
-      <c r="O43" s="22" t="s">
+      <c r="O43" s="21" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="44" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L44" s="26"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="24" t="s">
+    <row r="44" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L44" s="25"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="O44" s="22" t="s">
+      <c r="O44" s="21" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L45" s="26"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="24" t="s">
+    <row r="45" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L45" s="25"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="O45" s="22" t="s">
+      <c r="O45" s="21" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L46" s="26"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="24" t="s">
+    <row r="46" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L46" s="25"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="O46" s="22" t="s">
+      <c r="O46" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L47" s="26"/>
-      <c r="N47" s="21" t="s">
+    <row r="47" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="L47" s="25"/>
+      <c r="N47" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="O47" s="22" t="s">
+      <c r="O47" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N48" s="21" t="s">
+    <row r="48" spans="12:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="O48" s="22" t="s">
+      <c r="O48" s="21" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N49" s="21" t="s">
+    <row r="49" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N49" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="O49" s="22" t="s">
+      <c r="O49" s="21" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N50" s="21" t="s">
+    <row r="50" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N50" s="20" t="s">
         <v>749</v>
       </c>
-      <c r="O50" s="22" t="s">
+      <c r="O50" s="21" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N51" s="21" t="s">
+    <row r="51" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N51" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="O51" s="22" t="s">
+      <c r="O51" s="21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N52" s="21" t="s">
+    <row r="52" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N52" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="O52" s="22" t="s">
+      <c r="O52" s="21" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N53" s="21" t="s">
+    <row r="53" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N53" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="O53" s="22" t="s">
+      <c r="O53" s="21" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N54" s="21" t="s">
+    <row r="54" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N54" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="O54" s="22" t="s">
+      <c r="O54" s="21" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N55" s="21" t="s">
+    <row r="55" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N55" s="20" t="s">
         <v>604</v>
       </c>
-      <c r="O55" s="22" t="s">
+      <c r="O55" s="21" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N56" s="21" t="s">
+    <row r="56" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N56" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="O56" s="22" t="s">
+      <c r="O56" s="21" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="57" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N57" s="21" t="s">
+    <row r="57" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N57" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="O57" s="22" t="s">
+      <c r="O57" s="21" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N58" s="21" t="s">
+    <row r="58" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="O58" s="22" t="s">
+      <c r="O58" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N59" s="21" t="s">
+    <row r="59" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N59" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="O59" s="22" t="s">
+      <c r="O59" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N60" s="21" t="s">
+    <row r="60" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N60" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="O60" s="22" t="s">
+      <c r="O60" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N61" s="21" t="s">
+    <row r="61" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N61" s="20" t="s">
         <v>785</v>
       </c>
-      <c r="O61" s="22" t="s">
+      <c r="O61" s="21" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="62" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N62" s="21" t="s">
+    <row r="62" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N62" s="20" t="s">
         <v>676</v>
       </c>
-      <c r="O62" s="22" t="s">
+      <c r="O62" s="21" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N63" s="21" t="s">
+    <row r="63" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N63" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="O63" s="22" t="s">
+      <c r="O63" s="21" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="64" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N64" s="21" t="s">
+    <row r="64" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N64" s="20" t="s">
         <v>700</v>
       </c>
-      <c r="O64" s="22" t="s">
+      <c r="O64" s="21" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="65" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N65" s="21" t="s">
+    <row r="65" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N65" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="O65" s="22" t="s">
+      <c r="O65" s="21" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N66" s="21" t="s">
+    <row r="66" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N66" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="O66" s="22" t="s">
+      <c r="O66" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N67" s="21" t="s">
+    <row r="67" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N67" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="O67" s="22" t="s">
+      <c r="O67" s="21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N68" s="21" t="s">
+    <row r="68" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N68" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="O68" s="22" t="s">
+      <c r="O68" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N69" s="21" t="s">
+    <row r="69" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N69" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="O69" s="22" t="s">
+      <c r="O69" s="21" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="70" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N70" s="21" t="s">
+    <row r="70" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N70" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="O70" s="22" t="s">
+      <c r="O70" s="21" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N71" s="21" t="s">
+    <row r="71" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N71" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="O71" s="22" t="s">
+      <c r="O71" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N72" s="21" t="s">
+    <row r="72" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N72" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="O72" s="22" t="s">
+      <c r="O72" s="21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N73" s="21" t="s">
+    <row r="73" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N73" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="O73" s="22" t="s">
+      <c r="O73" s="21" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N74" s="21" t="s">
+    <row r="74" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N74" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="O74" s="22" t="s">
+      <c r="O74" s="21" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N75" s="21" t="s">
+    <row r="75" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N75" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="O75" s="22" t="s">
+      <c r="O75" s="21" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N76" s="21" t="s">
+    <row r="76" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N76" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="O76" s="22" t="s">
+      <c r="O76" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N77" s="21" t="s">
+    <row r="77" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N77" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="O77" s="22" t="s">
+      <c r="O77" s="21" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N78" s="21" t="s">
+    <row r="78" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N78" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="O78" s="22" t="s">
+      <c r="O78" s="21" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="79" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N79" s="21" t="s">
+    <row r="79" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N79" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="O79" s="22" t="s">
+      <c r="O79" s="21" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="80" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N80" s="21" t="s">
+    <row r="80" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N80" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="O80" s="22" t="s">
+      <c r="O80" s="21" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="81" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N81" s="21" t="s">
+    <row r="81" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N81" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="O81" s="22" t="s">
+      <c r="O81" s="21" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N82" s="21" t="s">
+    <row r="82" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N82" s="20" t="s">
         <v>777</v>
       </c>
-      <c r="O82" s="22" t="s">
+      <c r="O82" s="21" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="83" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N83" s="21" t="s">
+    <row r="83" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="20" t="s">
         <v>619</v>
       </c>
-      <c r="O83" s="22" t="s">
+      <c r="O83" s="21" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N84" s="21" t="s">
+    <row r="84" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N84" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="O84" s="22" t="s">
+      <c r="O84" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N85" s="21" t="s">
+    <row r="85" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N85" s="20" t="s">
         <v>767</v>
       </c>
-      <c r="O85" s="22" t="s">
+      <c r="O85" s="21" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="86" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N86" s="21" t="s">
+    <row r="86" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N86" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="O86" s="22" t="s">
+      <c r="O86" s="21" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="87" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N87" s="21" t="s">
+    <row r="87" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N87" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="O87" s="22" t="s">
+      <c r="O87" s="21" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="88" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N88" s="21" t="s">
+    <row r="88" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N88" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="O88" s="22" t="s">
+      <c r="O88" s="21" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N89" s="21" t="s">
+    <row r="89" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N89" s="20" t="s">
         <v>735</v>
       </c>
-      <c r="O89" s="22" t="s">
+      <c r="O89" s="21" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="90" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N90" s="21" t="s">
+    <row r="90" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N90" s="20" t="s">
         <v>799</v>
       </c>
-      <c r="O90" s="22" t="s">
+      <c r="O90" s="21" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="91" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N91" s="21" t="s">
+    <row r="91" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N91" s="20" t="s">
         <v>799</v>
       </c>
-      <c r="O91" s="22" t="s">
+      <c r="O91" s="21" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N92" s="21" t="s">
+    <row r="92" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N92" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="O92" s="22" t="s">
+      <c r="O92" s="21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N93" s="21" t="s">
+    <row r="93" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N93" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="O93" s="22" t="s">
+      <c r="O93" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N94" s="21" t="s">
+    <row r="94" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N94" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="O94" s="22" t="s">
+      <c r="O94" s="21" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N95" s="21" t="s">
+    <row r="95" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N95" s="20" t="s">
         <v>720</v>
       </c>
-      <c r="O95" s="22" t="s">
+      <c r="O95" s="21" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N96" s="21" t="s">
+    <row r="96" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N96" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="O96" s="22" t="s">
+      <c r="O96" s="21" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N97" s="21" t="s">
+    <row r="97" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N97" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="O97" s="22" t="s">
+      <c r="O97" s="21" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N98" s="21" t="s">
+    <row r="98" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N98" s="20" t="s">
         <v>411</v>
       </c>
-      <c r="O98" s="22" t="s">
+      <c r="O98" s="21" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N99" s="21" t="s">
+    <row r="99" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N99" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="O99" s="22" t="s">
+      <c r="O99" s="21" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N100" s="21" t="s">
+    <row r="100" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N100" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="O100" s="22" t="s">
+      <c r="O100" s="21" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="101" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N101" s="21" t="s">
+    <row r="101" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N101" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="O101" s="22" t="s">
+      <c r="O101" s="21" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="102" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N102" s="21" t="s">
+    <row r="102" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N102" s="20" t="s">
         <v>712</v>
       </c>
-      <c r="O102" s="22" t="s">
+      <c r="O102" s="21" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="103" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N103" s="21" t="s">
+    <row r="103" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N103" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="O103" s="22" t="s">
+      <c r="O103" s="21" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="104" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N104" s="21" t="s">
+    <row r="104" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N104" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="O104" s="22" t="s">
+      <c r="O104" s="21" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N105" s="21" t="s">
+    <row r="105" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N105" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="O105" s="22" t="s">
+      <c r="O105" s="21" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="106" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N106" s="21" t="s">
+    <row r="106" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N106" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="O106" s="22" t="s">
+      <c r="O106" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N107" s="21" t="s">
+    <row r="107" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N107" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="O107" s="22" t="s">
+      <c r="O107" s="21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N108" s="21" t="s">
+    <row r="108" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N108" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="O108" s="22" t="s">
+      <c r="O108" s="21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N109" s="21" t="s">
+    <row r="109" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N109" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="O109" s="22" t="s">
+      <c r="O109" s="21" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="110" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N110" s="21" t="s">
+    <row r="110" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N110" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O110" s="22" t="s">
+      <c r="O110" s="21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N111" s="21" t="s">
+    <row r="111" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N111" s="20" t="s">
         <v>805</v>
       </c>
-      <c r="O111" s="22" t="s">
+      <c r="O111" s="21" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N112" s="21" t="s">
+    <row r="112" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N112" s="20" t="s">
         <v>696</v>
       </c>
-      <c r="O112" s="22" t="s">
+      <c r="O112" s="21" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N113" s="21" t="s">
+    <row r="113" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N113" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="O113" s="22" t="s">
+      <c r="O113" s="21" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N114" s="21" t="s">
+    <row r="114" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N114" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="O114" s="22" t="s">
+      <c r="O114" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N115" s="21" t="s">
+    <row r="115" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N115" s="20" t="s">
         <v>649</v>
       </c>
-      <c r="O115" s="22" t="s">
+      <c r="O115" s="21" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="116" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N116" s="21" t="s">
+    <row r="116" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N116" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="O116" s="22" t="s">
+      <c r="O116" s="21" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="117" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N117" s="21" t="s">
+    <row r="117" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N117" s="20" t="s">
         <v>722</v>
       </c>
-      <c r="O117" s="22" t="s">
+      <c r="O117" s="21" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="118" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N118" s="21" t="s">
+    <row r="118" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N118" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="O118" s="22" t="s">
+      <c r="O118" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N119" s="21" t="s">
+    <row r="119" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N119" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="O119" s="22" t="s">
+      <c r="O119" s="21" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="120" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N120" s="21" t="s">
+    <row r="120" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N120" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="O120" s="21" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="121" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N121" s="21" t="s">
+    <row r="121" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N121" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="O121" s="22" t="s">
+      <c r="O121" s="21" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="122" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N122" s="21" t="s">
+    <row r="122" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N122" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="O122" s="22" t="s">
+      <c r="O122" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N123" s="21" t="s">
+    <row r="123" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N123" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="O123" s="22" t="s">
+      <c r="O123" s="21" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="124" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N124" s="21" t="s">
+    <row r="124" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N124" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="O124" s="22" t="s">
+      <c r="O124" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N125" s="21" t="s">
+    <row r="125" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N125" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="O125" s="22" t="s">
+      <c r="O125" s="21" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="126" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N126" s="21" t="s">
+    <row r="126" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N126" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="O126" s="22" t="s">
+      <c r="O126" s="21" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="127" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N127" s="21" t="s">
+    <row r="127" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N127" s="20" t="s">
         <v>578</v>
       </c>
-      <c r="O127" s="22" t="s">
+      <c r="O127" s="21" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="128" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N128" s="21" t="s">
+    <row r="128" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N128" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="O128" s="22" t="s">
+      <c r="O128" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N129" s="21" t="s">
+    <row r="129" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N129" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="O129" s="22" t="s">
+      <c r="O129" s="21" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="130" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N130" s="21" t="s">
+    <row r="130" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N130" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="O130" s="22" t="s">
+      <c r="O130" s="21" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="131" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N131" s="21" t="s">
+    <row r="131" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N131" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="O131" s="22" t="s">
+      <c r="O131" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N132" s="21" t="s">
+    <row r="132" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N132" s="20" t="s">
         <v>359</v>
       </c>
-      <c r="O132" s="22" t="s">
+      <c r="O132" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N133" s="21" t="s">
+    <row r="133" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N133" s="20" t="s">
         <v>818</v>
       </c>
-      <c r="O133" s="22" t="s">
+      <c r="O133" s="21" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="134" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N134" s="21" t="s">
+    <row r="134" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N134" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="O134" s="22" t="s">
+      <c r="O134" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N135" s="21" t="s">
+    <row r="135" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N135" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O135" s="22" t="s">
+      <c r="O135" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N136" s="21" t="s">
+    <row r="136" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N136" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O136" s="22" t="s">
+      <c r="O136" s="21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N137" s="21" t="s">
+    <row r="137" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N137" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="O137" s="22" t="s">
+      <c r="O137" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N138" s="21" t="s">
+    <row r="138" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N138" s="20" t="s">
         <v>828</v>
       </c>
-      <c r="O138" s="22" t="s">
+      <c r="O138" s="21" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="139" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N139" s="21" t="s">
+    <row r="139" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N139" s="20" t="s">
         <v>615</v>
       </c>
-      <c r="O139" s="22" t="s">
+      <c r="O139" s="21" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="140" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N140" s="21" t="s">
+    <row r="140" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N140" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="O140" s="22" t="s">
+      <c r="O140" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N141" s="21" t="s">
+    <row r="141" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N141" s="20" t="s">
         <v>756</v>
       </c>
-      <c r="O141" s="22" t="s">
+      <c r="O141" s="21" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="142" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N142" s="21" t="s">
+    <row r="142" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N142" s="20" t="s">
         <v>756</v>
       </c>
-      <c r="O142" s="22" t="s">
+      <c r="O142" s="21" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="143" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N143" s="21" t="s">
+    <row r="143" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N143" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="O143" s="22" t="s">
+      <c r="O143" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N144" s="21" t="s">
+    <row r="144" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N144" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="O144" s="22" t="s">
+      <c r="O144" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N145" s="21" t="s">
+    <row r="145" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N145" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="O145" s="22" t="s">
+      <c r="O145" s="21" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="146" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N146" s="21" t="s">
+    <row r="146" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N146" s="20" t="s">
         <v>617</v>
       </c>
-      <c r="O146" s="22" t="s">
+      <c r="O146" s="21" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="147" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N147" s="21" t="s">
+    <row r="147" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N147" s="20" t="s">
         <v>771</v>
       </c>
-      <c r="O147" s="22" t="s">
+      <c r="O147" s="21" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="148" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N148" s="21" t="s">
+    <row r="148" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N148" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="O148" s="22" t="s">
+      <c r="O148" s="21" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="149" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N149" s="21" t="s">
+    <row r="149" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N149" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="O149" s="22" t="s">
+      <c r="O149" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N150" s="21" t="s">
+    <row r="150" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N150" s="20" t="s">
         <v>708</v>
       </c>
-      <c r="O150" s="22" t="s">
+      <c r="O150" s="21" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="151" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N151" s="21" t="s">
+    <row r="151" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N151" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="O151" s="22" t="s">
+      <c r="O151" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N152" s="21" t="s">
+    <row r="152" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N152" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="O152" s="22" t="s">
+      <c r="O152" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N153" s="21" t="s">
+    <row r="153" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N153" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="O153" s="22" t="s">
+      <c r="O153" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N154" s="21" t="s">
+    <row r="154" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N154" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="O154" s="22" t="s">
+      <c r="O154" s="21" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="155" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N155" s="21" t="s">
+    <row r="155" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N155" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="O155" s="22" t="s">
+      <c r="O155" s="21" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="156" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N156" s="21" t="s">
+    <row r="156" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N156" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="O156" s="22" t="s">
+      <c r="O156" s="21" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="157" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N157" s="21" t="s">
+    <row r="157" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N157" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="O157" s="22" t="s">
+      <c r="O157" s="21" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="158" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N158" s="21" t="s">
+    <row r="158" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N158" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="O158" s="22" t="s">
+      <c r="O158" s="21" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="159" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N159" s="21" t="s">
+    <row r="159" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N159" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="O159" s="22" t="s">
+      <c r="O159" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N160" s="21" t="s">
+    <row r="160" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N160" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="O160" s="22" t="s">
+      <c r="O160" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N161" s="21" t="s">
+    <row r="161" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N161" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="O161" s="22" t="s">
+      <c r="O161" s="21" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="162" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N162" s="21" t="s">
+    <row r="162" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N162" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="O162" s="22" t="s">
+      <c r="O162" s="21" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="163" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N163" s="21" t="s">
+    <row r="163" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N163" s="20" t="s">
         <v>807</v>
       </c>
-      <c r="O163" s="22" t="s">
+      <c r="O163" s="21" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="164" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N164" s="21" t="s">
+    <row r="164" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N164" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="O164" s="22" t="s">
+      <c r="O164" s="21" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N165" s="21" t="s">
+    <row r="165" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N165" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="O165" s="22" t="s">
+      <c r="O165" s="21" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="166" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N166" s="21" t="s">
+    <row r="166" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N166" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="O166" s="22" t="s">
+      <c r="O166" s="21" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="167" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N167" s="21" t="s">
+    <row r="167" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N167" s="20" t="s">
         <v>698</v>
       </c>
-      <c r="O167" s="22" t="s">
+      <c r="O167" s="21" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="168" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N168" s="21" t="s">
+    <row r="168" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N168" s="20" t="s">
         <v>834</v>
       </c>
-      <c r="O168" s="22" t="s">
+      <c r="O168" s="21" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="169" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N169" s="21" t="s">
+    <row r="169" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N169" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="O169" s="22" t="s">
+      <c r="O169" s="21" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="170" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N170" s="21" t="s">
+    <row r="170" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N170" s="20" t="s">
         <v>889</v>
       </c>
-      <c r="O170" s="22" t="s">
+      <c r="O170" s="21" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N171" s="21" t="s">
+    <row r="171" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N171" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="O171" s="22" t="s">
+      <c r="O171" s="21" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="172" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N172" s="21" t="s">
+    <row r="172" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N172" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="O172" s="22" t="s">
+      <c r="O172" s="21" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="173" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N173" s="21" t="s">
+    <row r="173" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N173" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="O173" s="22" t="s">
+      <c r="O173" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="174" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N174" s="21" t="s">
+    <row r="174" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N174" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="O174" s="22" t="s">
+      <c r="O174" s="21" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N175" s="21" t="s">
+    <row r="175" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N175" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="O175" s="22" t="s">
+      <c r="O175" s="21" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="176" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N176" s="21" t="s">
+    <row r="176" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N176" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="O176" s="22" t="s">
+      <c r="O176" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="177" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N177" s="21" t="s">
+    <row r="177" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N177" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="O177" s="22" t="s">
+      <c r="O177" s="21" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="178" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N178" s="21" t="s">
+    <row r="178" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N178" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="O178" s="22" t="s">
+      <c r="O178" s="21" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="179" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N179" s="21" t="s">
+    <row r="179" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N179" s="20" t="s">
         <v>621</v>
       </c>
-      <c r="O179" s="22" t="s">
+      <c r="O179" s="21" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="180" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N180" s="21" t="s">
+    <row r="180" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N180" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="O180" s="22" t="s">
+      <c r="O180" s="21" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="181" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N181" s="21" t="s">
+    <row r="181" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N181" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="O181" s="22" t="s">
+      <c r="O181" s="21" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N182" s="21" t="s">
+    <row r="182" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N182" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="O182" s="22" t="s">
+      <c r="O182" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N183" s="21" t="s">
+    <row r="183" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N183" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="O183" s="22" t="s">
+      <c r="O183" s="21" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="184" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N184" s="21" t="s">
+    <row r="184" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N184" s="20" t="s">
         <v>453</v>
       </c>
-      <c r="O184" s="22" t="s">
+      <c r="O184" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="185" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N185" s="21" t="s">
+    <row r="185" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N185" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="O185" s="22" t="s">
+      <c r="O185" s="21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N186" s="21" t="s">
+    <row r="186" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N186" s="20" t="s">
         <v>839</v>
       </c>
-      <c r="O186" s="22" t="s">
+      <c r="O186" s="21" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="187" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N187" s="21" t="s">
+    <row r="187" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N187" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="O187" s="22" t="s">
+      <c r="O187" s="21" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="188" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N188" s="21" t="s">
+    <row r="188" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N188" s="20" t="s">
         <v>645</v>
       </c>
-      <c r="O188" s="22" t="s">
+      <c r="O188" s="21" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N189" s="21" t="s">
+    <row r="189" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N189" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="O189" s="22" t="s">
+      <c r="O189" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="190" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N190" s="21" t="s">
+    <row r="190" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N190" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="O190" s="22" t="s">
+      <c r="O190" s="21" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N191" s="21" t="s">
+    <row r="191" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N191" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="O191" s="22" t="s">
+      <c r="O191" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N192" s="21" t="s">
+    <row r="192" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N192" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="O192" s="22" t="s">
+      <c r="O192" s="21" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="193" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N193" s="21" t="s">
+    <row r="193" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N193" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="O193" s="22" t="s">
+      <c r="O193" s="21" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="194" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N194" s="21" t="s">
+    <row r="194" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N194" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="O194" s="22" t="s">
+      <c r="O194" s="21" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="195" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N195" s="21" t="s">
+    <row r="195" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N195" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="O195" s="22" t="s">
+      <c r="O195" s="21" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="196" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N196" s="21" t="s">
+    <row r="196" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N196" s="20" t="s">
         <v>751</v>
       </c>
-      <c r="O196" s="22" t="s">
+      <c r="O196" s="21" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="197" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N197" s="21" t="s">
+    <row r="197" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N197" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="O197" s="22" t="s">
+      <c r="O197" s="21" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N198" s="21" t="s">
+    <row r="198" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N198" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="O198" s="22" t="s">
+      <c r="O198" s="21" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N199" s="21" t="s">
+    <row r="199" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N199" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="O199" s="22" t="s">
+      <c r="O199" s="21" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="200" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N200" s="21" t="s">
+    <row r="200" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N200" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="O200" s="22" t="s">
+      <c r="O200" s="21" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="201" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N201" s="21" t="s">
+    <row r="201" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N201" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="O201" s="22" t="s">
+      <c r="O201" s="21" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="202" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N202" s="21" t="s">
+    <row r="202" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N202" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="O202" s="22" t="s">
+      <c r="O202" s="21" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="203" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N203" s="21" t="s">
+    <row r="203" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N203" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="O203" s="22" t="s">
+      <c r="O203" s="21" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="204" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N204" s="21" t="s">
+    <row r="204" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N204" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="O204" s="22" t="s">
+      <c r="O204" s="21" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N205" s="21" t="s">
+    <row r="205" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N205" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="O205" s="22" t="s">
+      <c r="O205" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N206" s="21" t="s">
+    <row r="206" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N206" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="O206" s="22" t="s">
+      <c r="O206" s="21" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="207" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N207" s="21" t="s">
+    <row r="207" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N207" s="20" t="s">
         <v>741</v>
       </c>
-      <c r="O207" s="22" t="s">
+      <c r="O207" s="21" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="208" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N208" s="21" t="s">
+    <row r="208" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N208" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="O208" s="22" t="s">
+      <c r="O208" s="21" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="209" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N209" s="21" t="s">
+    <row r="209" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N209" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="O209" s="22" t="s">
+      <c r="O209" s="21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="210" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N210" s="21" t="s">
+    <row r="210" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N210" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="O210" s="22" t="s">
+      <c r="O210" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="211" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N211" s="21" t="s">
+    <row r="211" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N211" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="O211" s="22" t="s">
+      <c r="O211" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="212" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N212" s="21" t="s">
+    <row r="212" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N212" s="20" t="s">
         <v>820</v>
       </c>
-      <c r="O212" s="22" t="s">
+      <c r="O212" s="21" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="213" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N213" s="21" t="s">
+    <row r="213" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N213" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="O213" s="22" t="s">
+      <c r="O213" s="21" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="214" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N214" s="21" t="s">
+    <row r="214" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N214" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="O214" s="22" t="s">
+      <c r="O214" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N215" s="21" t="s">
+    <row r="215" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N215" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="O215" s="22" t="s">
+      <c r="O215" s="21" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="216" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N216" s="21" t="s">
+    <row r="216" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N216" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="O216" s="22" t="s">
+      <c r="O216" s="21" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="217" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N217" s="21" t="s">
+    <row r="217" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N217" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="O217" s="22" t="s">
+      <c r="O217" s="21" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="218" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N218" s="21" t="s">
+    <row r="218" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N218" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="O218" s="22" t="s">
+      <c r="O218" s="21" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="219" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N219" s="21" t="s">
+    <row r="219" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N219" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="O219" s="22" t="s">
+      <c r="O219" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="220" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N220" s="21" t="s">
+    <row r="220" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N220" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="O220" s="22" t="s">
+      <c r="O220" s="21" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="221" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N221" s="21" t="s">
+    <row r="221" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N221" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="O221" s="22" t="s">
+      <c r="O221" s="21" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="222" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N222" s="21" t="s">
+    <row r="222" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N222" s="20" t="s">
         <v>706</v>
       </c>
-      <c r="O222" s="22" t="s">
+      <c r="O222" s="21" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="223" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N223" s="21" t="s">
+    <row r="223" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N223" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="O223" s="22" t="s">
+      <c r="O223" s="21" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="224" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N224" s="21" t="s">
+    <row r="224" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N224" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="O224" s="22" t="s">
+      <c r="O224" s="21" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="225" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N225" s="21" t="s">
+    <row r="225" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N225" s="20" t="s">
         <v>627</v>
       </c>
-      <c r="O225" s="22" t="s">
+      <c r="O225" s="21" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="226" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N226" s="21" t="s">
+    <row r="226" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N226" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="O226" s="22" t="s">
+      <c r="O226" s="21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N227" s="21" t="s">
+    <row r="227" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N227" s="20" t="s">
         <v>832</v>
       </c>
-      <c r="O227" s="22" t="s">
+      <c r="O227" s="21" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="228" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N228" s="21" t="s">
+    <row r="228" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N228" s="20" t="s">
         <v>745</v>
       </c>
-      <c r="O228" s="22" t="s">
+      <c r="O228" s="21" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="229" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N229" s="21" t="s">
+    <row r="229" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N229" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="O229" s="22" t="s">
+      <c r="O229" s="21" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="230" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N230" s="21" t="s">
+    <row r="230" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N230" s="20" t="s">
         <v>781</v>
       </c>
-      <c r="O230" s="22" t="s">
+      <c r="O230" s="21" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="231" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N231" s="21" t="s">
+    <row r="231" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N231" s="20" t="s">
         <v>739</v>
       </c>
-      <c r="O231" s="22" t="s">
+      <c r="O231" s="21" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="232" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N232" s="21" t="s">
+    <row r="232" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N232" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="O232" s="22" t="s">
+      <c r="O232" s="21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="233" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N233" s="21" t="s">
+    <row r="233" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N233" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="O233" s="22" t="s">
+      <c r="O233" s="21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="234" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N234" s="21" t="s">
+    <row r="234" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N234" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="O234" s="22" t="s">
+      <c r="O234" s="21" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="235" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N235" s="21" t="s">
+    <row r="235" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N235" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="O235" s="22" t="s">
+      <c r="O235" s="21" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="236" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N236" s="21" t="s">
+    <row r="236" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N236" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="O236" s="22" t="s">
+      <c r="O236" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="237" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N237" s="21" t="s">
+    <row r="237" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N237" s="20" t="s">
         <v>693</v>
       </c>
-      <c r="O237" s="22" t="s">
+      <c r="O237" s="21" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N238" s="21" t="s">
+    <row r="238" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N238" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="O238" s="22" t="s">
+      <c r="O238" s="21" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="239" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N239" s="21" t="s">
+    <row r="239" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N239" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="O239" s="22" t="s">
+      <c r="O239" s="21" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="240" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N240" s="21" t="s">
+    <row r="240" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N240" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="O240" s="22" t="s">
+      <c r="O240" s="21" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="241" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N241" s="21" t="s">
+    <row r="241" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N241" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O241" s="22" t="s">
+      <c r="O241" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N242" s="21" t="s">
+    <row r="242" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N242" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="O242" s="22" t="s">
+      <c r="O242" s="21" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="243" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N243" s="21" t="s">
+    <row r="243" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N243" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="O243" s="22" t="s">
+      <c r="O243" s="21" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="244" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N244" s="21" t="s">
+    <row r="244" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N244" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="O244" s="22" t="s">
+      <c r="O244" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="245" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N245" s="21" t="s">
+    <row r="245" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N245" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="O245" s="22" t="s">
+      <c r="O245" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="246" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N246" s="21" t="s">
+    <row r="246" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N246" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="O246" s="22" t="s">
+      <c r="O246" s="21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="247" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N247" s="21" t="s">
+    <row r="247" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N247" s="20" t="s">
         <v>588</v>
       </c>
-      <c r="O247" s="22" t="s">
+      <c r="O247" s="21" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="248" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N248" s="21" t="s">
+    <row r="248" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N248" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="O248" s="22" t="s">
+      <c r="O248" s="21" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N249" s="21" t="s">
+    <row r="249" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N249" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="O249" s="22" t="s">
+      <c r="O249" s="21" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N250" s="21" t="s">
+    <row r="250" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N250" s="20" t="s">
         <v>633</v>
       </c>
-      <c r="O250" s="22" t="s">
+      <c r="O250" s="21" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="251" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N251" s="21" t="s">
+    <row r="251" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N251" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="O251" s="22" t="s">
+      <c r="O251" s="21" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="252" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N252" s="21" t="s">
+    <row r="252" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N252" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="O252" s="22" t="s">
+      <c r="O252" s="21" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="253" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N253" s="21" t="s">
+    <row r="253" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N253" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="O253" s="22" t="s">
+      <c r="O253" s="21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N254" s="21" t="s">
+    <row r="254" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N254" s="20" t="s">
         <v>383</v>
       </c>
-      <c r="O254" s="22" t="s">
+      <c r="O254" s="21" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N255" s="21" t="s">
+    <row r="255" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N255" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="O255" s="22" t="s">
+      <c r="O255" s="21" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="256" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N256" s="21" t="s">
+    <row r="256" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N256" s="20" t="s">
         <v>710</v>
       </c>
-      <c r="O256" s="22" t="s">
+      <c r="O256" s="21" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="257" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N257" s="21" t="s">
+    <row r="257" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N257" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="O257" s="22" t="s">
+      <c r="O257" s="21" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="258" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N258" s="21" t="s">
+    <row r="258" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N258" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="O258" s="22" t="s">
+      <c r="O258" s="21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="259" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N259" s="21" t="s">
+    <row r="259" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N259" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="O259" s="22" t="s">
+      <c r="O259" s="21" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="260" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N260" s="21" t="s">
+    <row r="260" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N260" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O260" s="22" t="s">
+      <c r="O260" s="21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N261" s="21" t="s">
+    <row r="261" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N261" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="O261" s="22" t="s">
+      <c r="O261" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="262" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N262" s="21" t="s">
+    <row r="262" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N262" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="O262" s="22" t="s">
+      <c r="O262" s="21" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="263" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N263" s="21" t="s">
+    <row r="263" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N263" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="O263" s="22" t="s">
+      <c r="O263" s="21" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N264" s="21" t="s">
+    <row r="264" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N264" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="O264" s="22" t="s">
+      <c r="O264" s="21" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="265" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N265" s="21" t="s">
+    <row r="265" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N265" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="O265" s="22" t="s">
+      <c r="O265" s="21" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N266" s="21" t="s">
+    <row r="266" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N266" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="O266" s="22" t="s">
+      <c r="O266" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="267" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N267" s="21" t="s">
+    <row r="267" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N267" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="O267" s="22" t="s">
+      <c r="O267" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="268" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N268" s="21" t="s">
+    <row r="268" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N268" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="O268" s="22" t="s">
+      <c r="O268" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="269" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N269" s="21" t="s">
+    <row r="269" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N269" s="20" t="s">
         <v>702</v>
       </c>
-      <c r="O269" s="22" t="s">
+      <c r="O269" s="21" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="270" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N270" s="21" t="s">
+    <row r="270" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N270" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="O270" s="22" t="s">
+      <c r="O270" s="21" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="271" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N271" s="21" t="s">
+    <row r="271" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N271" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="O271" s="22" t="s">
+      <c r="O271" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="272" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N272" s="21" t="s">
+    <row r="272" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N272" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="O272" s="22" t="s">
+      <c r="O272" s="21" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="273" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N273" s="21" t="s">
+    <row r="273" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N273" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="O273" s="22" t="s">
+      <c r="O273" s="21" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="274" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N274" s="21" t="s">
+    <row r="274" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N274" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="O274" s="22" t="s">
+      <c r="O274" s="21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N275" s="21" t="s">
+    <row r="275" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N275" s="20" t="s">
         <v>313</v>
       </c>
-      <c r="O275" s="22" t="s">
+      <c r="O275" s="21" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="276" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N276" s="21" t="s">
+    <row r="276" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N276" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="O276" s="22" t="s">
+      <c r="O276" s="21" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="277" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N277" s="21" t="s">
+    <row r="277" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N277" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="O277" s="22" t="s">
+      <c r="O277" s="21" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="278" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N278" s="21" t="s">
+    <row r="278" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N278" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="O278" s="22" t="s">
+      <c r="O278" s="21" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="279" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N279" s="21" t="s">
+    <row r="279" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N279" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="O279" s="22" t="s">
+      <c r="O279" s="21" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="280" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N280" s="21" t="s">
+    <row r="280" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N280" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="O280" s="22" t="s">
+      <c r="O280" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="281" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N281" s="21" t="s">
+    <row r="281" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N281" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="O281" s="22" t="s">
+      <c r="O281" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="282" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N282" s="21" t="s">
+    <row r="282" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N282" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="O282" s="22" t="s">
+      <c r="O282" s="21" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="283" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N283" s="21" t="s">
+    <row r="283" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N283" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="O283" s="22" t="s">
+      <c r="O283" s="21" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="284" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N284" s="21" t="s">
+    <row r="284" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N284" s="20" t="s">
         <v>674</v>
       </c>
-      <c r="O284" s="22" t="s">
+      <c r="O284" s="21" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="285" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N285" s="21" t="s">
+    <row r="285" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N285" s="20" t="s">
         <v>763</v>
       </c>
-      <c r="O285" s="22" t="s">
+      <c r="O285" s="21" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="286" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N286" s="21" t="s">
+    <row r="286" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N286" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O286" s="22" t="s">
+      <c r="O286" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N287" s="21" t="s">
+    <row r="287" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N287" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="O287" s="22" t="s">
+      <c r="O287" s="21" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="288" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N288" s="21" t="s">
+    <row r="288" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N288" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="O288" s="22" t="s">
+      <c r="O288" s="21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="289" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N289" s="21" t="s">
+    <row r="289" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N289" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="O289" s="22" t="s">
+      <c r="O289" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="290" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N290" s="21" t="s">
+    <row r="290" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N290" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="O290" s="22" t="s">
+      <c r="O290" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="291" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N291" s="21" t="s">
+    <row r="291" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N291" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="O291" s="22" t="s">
+      <c r="O291" s="21" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="292" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N292" s="21" t="s">
+    <row r="292" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N292" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="O292" s="22" t="s">
+      <c r="O292" s="21" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N293" s="21" t="s">
+    <row r="293" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N293" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="O293" s="22" t="s">
+      <c r="O293" s="21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="294" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N294" s="21" t="s">
+    <row r="294" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N294" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="O294" s="22" t="s">
+      <c r="O294" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="295" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N295" s="21" t="s">
+    <row r="295" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N295" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="O295" s="22" t="s">
+      <c r="O295" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="296" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N296" s="21" t="s">
+    <row r="296" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N296" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="O296" s="22" t="s">
+      <c r="O296" s="21" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="297" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N297" s="21" t="s">
+    <row r="297" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N297" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="O297" s="22" t="s">
+      <c r="O297" s="21" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="298" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N298" s="21" t="s">
+    <row r="298" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N298" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="O298" s="22" t="s">
+      <c r="O298" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="299" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N299" s="21" t="s">
+    <row r="299" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N299" s="20" t="s">
         <v>846</v>
       </c>
-      <c r="O299" s="22" t="s">
+      <c r="O299" s="21" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="300" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N300" s="21" t="s">
+    <row r="300" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N300" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="O300" s="22" t="s">
+      <c r="O300" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="301" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N301" s="21" t="s">
+    <row r="301" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N301" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="O301" s="22" t="s">
+      <c r="O301" s="21" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="302" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N302" s="21" t="s">
+    <row r="302" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N302" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="O302" s="22" t="s">
+      <c r="O302" s="21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="303" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N303" s="21" t="s">
+    <row r="303" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N303" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="O303" s="22" t="s">
+      <c r="O303" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="304" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N304" s="21" t="s">
+    <row r="304" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N304" s="20" t="s">
         <v>747</v>
       </c>
-      <c r="O304" s="22" t="s">
+      <c r="O304" s="21" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="305" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N305" s="21" t="s">
+    <row r="305" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N305" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="O305" s="22" t="s">
+      <c r="O305" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N306" s="21" t="s">
+    <row r="306" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N306" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="O306" s="22" t="s">
+      <c r="O306" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="307" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N307" s="21" t="s">
+    <row r="307" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N307" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="O307" s="22" t="s">
+      <c r="O307" s="21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="308" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N308" s="21" t="s">
+    <row r="308" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N308" s="20" t="s">
         <v>761</v>
       </c>
-      <c r="O308" s="22" t="s">
+      <c r="O308" s="21" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="309" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N309" s="21" t="s">
+    <row r="309" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N309" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O309" s="22" t="s">
+      <c r="O309" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="310" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N310" s="21" t="s">
+    <row r="310" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N310" s="20" t="s">
         <v>594</v>
       </c>
-      <c r="O310" s="22" t="s">
+      <c r="O310" s="21" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="311" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N311" s="21" t="s">
+    <row r="311" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N311" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="O311" s="22" t="s">
+      <c r="O311" s="21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="312" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N312" s="21" t="s">
+    <row r="312" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N312" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="O312" s="22" t="s">
+      <c r="O312" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="313" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N313" s="21" t="s">
+    <row r="313" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N313" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="O313" s="22" t="s">
+      <c r="O313" s="21" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="314" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N314" s="21" t="s">
+    <row r="314" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N314" s="20" t="s">
         <v>714</v>
       </c>
-      <c r="O314" s="22" t="s">
+      <c r="O314" s="21" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="315" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N315" s="21" t="s">
+    <row r="315" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N315" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="O315" s="22" t="s">
+      <c r="O315" s="21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="316" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N316" s="21" t="s">
+    <row r="316" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N316" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="O316" s="22" t="s">
+      <c r="O316" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N317" s="21" t="s">
+    <row r="317" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N317" s="20" t="s">
         <v>795</v>
       </c>
-      <c r="O317" s="22" t="s">
+      <c r="O317" s="21" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="318" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N318" s="21" t="s">
+    <row r="318" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N318" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="O318" s="22" t="s">
+      <c r="O318" s="21" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="319" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N319" s="21" t="s">
+    <row r="319" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N319" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="O319" s="22" t="s">
+      <c r="O319" s="21" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="320" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N320" s="21" t="s">
+    <row r="320" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N320" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="O320" s="22" t="s">
+      <c r="O320" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="321" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N321" s="21" t="s">
+    <row r="321" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N321" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="O321" s="22" t="s">
+      <c r="O321" s="21" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="322" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N322" s="21" t="s">
+    <row r="322" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N322" s="20" t="s">
         <v>726</v>
       </c>
-      <c r="O322" s="22" t="s">
+      <c r="O322" s="21" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="323" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N323" s="21" t="s">
+    <row r="323" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N323" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="O323" s="22" t="s">
+      <c r="O323" s="21" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="324" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N324" s="21" t="s">
+    <row r="324" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N324" s="20" t="s">
         <v>850</v>
       </c>
-      <c r="O324" s="22" t="s">
+      <c r="O324" s="21" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="325" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N325" s="21" t="s">
+    <row r="325" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N325" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="O325" s="22" t="s">
+      <c r="O325" s="21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="326" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N326" s="21" t="s">
+    <row r="326" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N326" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="O326" s="22" t="s">
+      <c r="O326" s="21" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="327" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N327" s="21" t="s">
+    <row r="327" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N327" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="O327" s="22" t="s">
+      <c r="O327" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="328" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N328" s="21" t="s">
+    <row r="328" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N328" s="20" t="s">
         <v>724</v>
       </c>
-      <c r="O328" s="22" t="s">
+      <c r="O328" s="21" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="329" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N329" s="21" t="s">
+    <row r="329" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N329" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="O329" s="22" t="s">
+      <c r="O329" s="21" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="330" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N330" s="21" t="s">
+    <row r="330" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N330" s="20" t="s">
         <v>718</v>
       </c>
-      <c r="O330" s="22" t="s">
+      <c r="O330" s="21" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="331" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N331" s="21" t="s">
+    <row r="331" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N331" s="20" t="s">
         <v>790</v>
       </c>
-      <c r="O331" s="22" t="s">
+      <c r="O331" s="21" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="332" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N332" s="21" t="s">
+    <row r="332" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N332" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="O332" s="22" t="s">
+      <c r="O332" s="21" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="333" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N333" s="21" t="s">
+    <row r="333" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N333" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="O333" s="22" t="s">
+      <c r="O333" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="334" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N334" s="21" t="s">
+    <row r="334" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N334" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="O334" s="22" t="s">
+      <c r="O334" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="335" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N335" s="21" t="s">
+    <row r="335" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N335" s="20" t="s">
         <v>659</v>
       </c>
-      <c r="O335" s="22" t="s">
+      <c r="O335" s="21" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="336" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N336" s="21" t="s">
+    <row r="336" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N336" s="20" t="s">
         <v>655</v>
       </c>
-      <c r="O336" s="22" t="s">
+      <c r="O336" s="21" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="337" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N337" s="21" t="s">
+    <row r="337" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N337" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="O337" s="22" t="s">
+      <c r="O337" s="21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N338" s="21" t="s">
+    <row r="338" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N338" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="O338" s="22" t="s">
+      <c r="O338" s="21" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N339" s="21" t="s">
+    <row r="339" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N339" s="20" t="s">
         <v>665</v>
       </c>
-      <c r="O339" s="22" t="s">
+      <c r="O339" s="21" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="340" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N340" s="21" t="s">
+    <row r="340" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N340" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="O340" s="22" t="s">
+      <c r="O340" s="21" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="341" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N341" s="21" t="s">
+    <row r="341" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N341" s="20" t="s">
         <v>687</v>
       </c>
-      <c r="O341" s="22" t="s">
+      <c r="O341" s="21" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="342" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N342" s="21" t="s">
+    <row r="342" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N342" s="20" t="s">
         <v>783</v>
       </c>
-      <c r="O342" s="22" t="s">
+      <c r="O342" s="21" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="343" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N343" s="21" t="s">
+    <row r="343" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N343" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="O343" s="22" t="s">
+      <c r="O343" s="21" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="344" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N344" s="21" t="s">
+    <row r="344" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N344" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="O344" s="22" t="s">
+      <c r="O344" s="21" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="345" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N345" s="21" t="s">
+    <row r="345" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N345" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="O345" s="22" t="s">
+      <c r="O345" s="21" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="346" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N346" s="21" t="s">
+    <row r="346" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N346" s="20" t="s">
         <v>793</v>
       </c>
-      <c r="O346" s="22" t="s">
+      <c r="O346" s="21" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="347" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N347" s="21" t="s">
+    <row r="347" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N347" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="O347" s="22" t="s">
+      <c r="O347" s="21" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="348" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N348" s="21" t="s">
+    <row r="348" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N348" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="O348" s="22" t="s">
+      <c r="O348" s="21" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="349" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N349" s="21" t="s">
+    <row r="349" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N349" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="O349" s="22" t="s">
+      <c r="O349" s="21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="350" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N350" s="21" t="s">
+    <row r="350" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N350" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="O350" s="22" t="s">
+      <c r="O350" s="21" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="351" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N351" s="21" t="s">
+    <row r="351" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N351" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="O351" s="22" t="s">
+      <c r="O351" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="352" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N352" s="21" t="s">
+    <row r="352" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N352" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="O352" s="22" t="s">
+      <c r="O352" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="353" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N353" s="21" t="s">
+    <row r="353" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N353" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="O353" s="22" t="s">
+      <c r="O353" s="21" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="354" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N354" s="21" t="s">
+    <row r="354" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N354" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="O354" s="22" t="s">
+      <c r="O354" s="21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="355" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N355" s="21" t="s">
+    <row r="355" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N355" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="O355" s="22" t="s">
+      <c r="O355" s="21" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="356" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N356" s="21" t="s">
+    <row r="356" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N356" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="O356" s="22" t="s">
+      <c r="O356" s="21" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="357" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N357" s="21" t="s">
+    <row r="357" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N357" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="O357" s="22" t="s">
+      <c r="O357" s="21" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="358" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N358" s="21" t="s">
+    <row r="358" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N358" s="20" t="s">
         <v>788</v>
       </c>
-      <c r="O358" s="22" t="s">
+      <c r="O358" s="21" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="359" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N359" s="21" t="s">
+    <row r="359" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N359" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="O359" s="22" t="s">
+      <c r="O359" s="21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="360" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N360" s="21" t="s">
+    <row r="360" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N360" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="O360" s="22" t="s">
+      <c r="O360" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="361" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N361" s="21" t="s">
+    <row r="361" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N361" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="O361" s="22" t="s">
+      <c r="O361" s="21" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="362" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N362" s="21" t="s">
+    <row r="362" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N362" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="O362" s="22" t="s">
+      <c r="O362" s="21" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="363" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N363" s="21" t="s">
+    <row r="363" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N363" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="O363" s="22" t="s">
+      <c r="O363" s="21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="364" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N364" s="21" t="s">
+    <row r="364" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N364" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="O364" s="22" t="s">
+      <c r="O364" s="21" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="365" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N365" s="21" t="s">
+    <row r="365" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N365" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="O365" s="22" t="s">
+      <c r="O365" s="21" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="366" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N366" s="21" t="s">
+    <row r="366" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N366" s="20" t="s">
         <v>685</v>
       </c>
-      <c r="O366" s="22" t="s">
+      <c r="O366" s="21" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="367" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N367" s="21" t="s">
+    <row r="367" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N367" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="O367" s="22" t="s">
+      <c r="O367" s="21" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="368" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N368" s="23" t="s">
+    <row r="368" spans="14:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="N368" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="O368" s="22" t="s">
+      <c r="O368" s="21" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="369" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N369" s="21" t="s">
+    <row r="369" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N369" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="O369" s="22" t="s">
+      <c r="O369" s="21" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="370" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N370" s="21" t="s">
+    <row r="370" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N370" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="O370" s="22" t="s">
+      <c r="O370" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="371" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N371" s="21" t="s">
+    <row r="371" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N371" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="O371" s="22" t="s">
+      <c r="O371" s="21" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="372" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N372" s="21" t="s">
+    <row r="372" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N372" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="O372" s="22" t="s">
+      <c r="O372" s="21" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="373" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N373" s="21" t="s">
+    <row r="373" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N373" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="O373" s="22" t="s">
+      <c r="O373" s="21" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="374" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N374" s="21" t="s">
+    <row r="374" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N374" s="20" t="s">
         <v>524</v>
       </c>
-      <c r="O374" s="22" t="s">
+      <c r="O374" s="21" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="375" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N375" s="21" t="s">
+    <row r="375" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N375" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="O375" s="22" t="s">
+      <c r="O375" s="21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="376" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N376" s="21" t="s">
+    <row r="376" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N376" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="O376" s="22" t="s">
+      <c r="O376" s="21" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="377" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N377" s="21" t="s">
+    <row r="377" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N377" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="O377" s="22" t="s">
+      <c r="O377" s="21" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="378" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N378" s="21" t="s">
+    <row r="378" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N378" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="O378" s="22" t="s">
+      <c r="O378" s="21" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="379" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N379" s="21" t="s">
+    <row r="379" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N379" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="O379" s="22" t="s">
+      <c r="O379" s="21" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="380" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N380" s="21" t="s">
+    <row r="380" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N380" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="O380" s="22" t="s">
+      <c r="O380" s="21" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="381" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N381" s="21" t="s">
+    <row r="381" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N381" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="O381" s="22" t="s">
+      <c r="O381" s="21" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="382" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N382" s="21" t="s">
+    <row r="382" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N382" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="O382" s="22" t="s">
+      <c r="O382" s="21" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="383" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N383" s="21" t="s">
+    <row r="383" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N383" s="20" t="s">
         <v>737</v>
       </c>
-      <c r="O383" s="22" t="s">
+      <c r="O383" s="21" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="384" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N384" s="21" t="s">
+    <row r="384" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N384" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="O384" s="22" t="s">
+      <c r="O384" s="21" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="385" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N385" s="21" t="s">
+    <row r="385" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N385" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="O385" s="22" t="s">
+      <c r="O385" s="21" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="386" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N386" s="21" t="s">
+    <row r="386" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N386" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="O386" s="22" t="s">
+      <c r="O386" s="21" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="387" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N387" s="21" t="s">
+    <row r="387" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N387" s="20" t="s">
         <v>451</v>
       </c>
-      <c r="O387" s="22" t="s">
+      <c r="O387" s="21" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="388" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N388" s="21" t="s">
+    <row r="388" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N388" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="O388" s="22" t="s">
+      <c r="O388" s="21" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="389" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N389" s="21" t="s">
+    <row r="389" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N389" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="O389" s="22" t="s">
+      <c r="O389" s="21" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="390" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N390" s="21" t="s">
+    <row r="390" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N390" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="O390" s="22" t="s">
+      <c r="O390" s="21" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="391" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N391" s="21" t="s">
+    <row r="391" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N391" s="20" t="s">
         <v>716</v>
       </c>
-      <c r="O391" s="22" t="s">
+      <c r="O391" s="21" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="392" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N392" s="21" t="s">
+    <row r="392" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N392" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="O392" s="22" t="s">
+      <c r="O392" s="21" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="393" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N393" s="21" t="s">
+    <row r="393" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N393" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="O393" s="22" t="s">
+      <c r="O393" s="21" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N394" s="21" t="s">
+    <row r="394" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N394" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="O394" s="22" t="s">
+      <c r="O394" s="21" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="395" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N395" s="21" t="s">
+    <row r="395" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N395" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="O395" s="22" t="s">
+      <c r="O395" s="21" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="396" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N396" s="21" t="s">
+    <row r="396" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N396" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="O396" s="22" t="s">
+      <c r="O396" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="397" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N397" s="21" t="s">
+    <row r="397" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N397" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="O397" s="22" t="s">
+      <c r="O397" s="21" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="398" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N398" s="21" t="s">
+    <row r="398" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N398" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="O398" s="22" t="s">
+      <c r="O398" s="21" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="399" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N399" s="21" t="s">
+    <row r="399" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N399" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="O399" s="22" t="s">
+      <c r="O399" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="400" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N400" s="21" t="s">
+    <row r="400" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N400" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="O400" s="22" t="s">
+      <c r="O400" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="401" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N401" s="21" t="s">
+    <row r="401" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N401" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="O401" s="22" t="s">
+      <c r="O401" s="21" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="402" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N402" s="21" t="s">
+    <row r="402" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N402" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="O402" s="22" t="s">
+      <c r="O402" s="21" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="403" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N403" s="21" t="s">
+    <row r="403" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N403" s="20" t="s">
         <v>689</v>
       </c>
-      <c r="O403" s="22" t="s">
+      <c r="O403" s="21" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="404" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N404" s="21" t="s">
+    <row r="404" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N404" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="O404" s="22" t="s">
+      <c r="O404" s="21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="405" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N405" s="21" t="s">
+    <row r="405" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N405" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="O405" s="22" t="s">
+      <c r="O405" s="21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="406" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N406" s="21" t="s">
+    <row r="406" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N406" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="O406" s="22" t="s">
+      <c r="O406" s="21" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="407" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N407" s="21" t="s">
+    <row r="407" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N407" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="O407" s="22" t="s">
+      <c r="O407" s="21" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="408" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N408" s="21" t="s">
+    <row r="408" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N408" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="O408" s="22" t="s">
+      <c r="O408" s="21" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="409" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N409" s="21" t="s">
+    <row r="409" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N409" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="O409" s="22" t="s">
+      <c r="O409" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="410" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N410" s="21" t="s">
+    <row r="410" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N410" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="O410" s="22" t="s">
+      <c r="O410" s="21" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="411" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N411" s="21" t="s">
+    <row r="411" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N411" s="20" t="s">
         <v>870</v>
       </c>
-      <c r="O411" s="22" t="s">
+      <c r="O411" s="21" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="412" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N412" s="21" t="s">
+    <row r="412" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N412" s="20" t="s">
         <v>871</v>
       </c>
-      <c r="O412" s="22" t="s">
+      <c r="O412" s="21" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="413" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N413" s="21" t="s">
+    <row r="413" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N413" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="O413" s="22" t="s">
+      <c r="O413" s="21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="414" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N414" s="21" t="s">
+    <row r="414" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N414" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="O414" s="22" t="s">
+      <c r="O414" s="21" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="415" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N415" s="21" t="s">
+    <row r="415" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N415" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="O415" s="22" t="s">
+      <c r="O415" s="21" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="416" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N416" s="21" t="s">
+    <row r="416" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N416" s="20" t="s">
         <v>874</v>
       </c>
-      <c r="O416" s="22" t="s">
+      <c r="O416" s="21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="417" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N417" s="21" t="s">
+    <row r="417" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N417" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="O417" s="22" t="s">
+      <c r="O417" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="418" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N418" s="21" t="s">
+    <row r="418" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N418" s="20" t="s">
         <v>876</v>
       </c>
-      <c r="O418" s="22" t="s">
+      <c r="O418" s="21" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="419" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N419" s="21" t="s">
+    <row r="419" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N419" s="20" t="s">
         <v>877</v>
       </c>
-      <c r="O419" s="22" t="s">
+      <c r="O419" s="21" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="420" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N420" s="21" t="s">
+    <row r="420" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N420" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="O420" s="22" t="s">
+      <c r="O420" s="21" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="421" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N421" s="21" t="s">
+    <row r="421" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N421" s="20" t="s">
         <v>879</v>
       </c>
-      <c r="O421" s="22" t="s">
+      <c r="O421" s="21" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="422" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N422" s="21" t="s">
+    <row r="422" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N422" s="20" t="s">
         <v>880</v>
       </c>
-      <c r="O422" s="22" t="s">
+      <c r="O422" s="21" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="423" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N423" s="21" t="s">
+    <row r="423" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N423" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="O423" s="22" t="s">
+      <c r="O423" s="21" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="424" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N424" s="21" t="s">
+    <row r="424" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N424" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="O424" s="22" t="s">
+      <c r="O424" s="21" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="425" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N425" s="21" t="s">
+    <row r="425" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N425" s="20" t="s">
         <v>883</v>
       </c>
-      <c r="O425" s="22" t="s">
+      <c r="O425" s="21" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="426" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N426" s="21" t="s">
+    <row r="426" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N426" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="O426" s="22" t="s">
+      <c r="O426" s="21" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="427" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N427" s="21" t="s">
+    <row r="427" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N427" s="20" t="s">
         <v>885</v>
       </c>
-      <c r="O427" s="22" t="s">
+      <c r="O427" s="21" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="428" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N428" s="21" t="s">
+    <row r="428" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N428" s="20" t="s">
         <v>886</v>
       </c>
-      <c r="O428" s="22" t="s">
+      <c r="O428" s="21" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="429" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N429" s="28"/>
-      <c r="O429" s="26"/>
-    </row>
-    <row r="430" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N430" s="28"/>
-      <c r="O430" s="26"/>
-    </row>
-    <row r="431" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N431" s="28"/>
-      <c r="O431" s="26"/>
-    </row>
-    <row r="432" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N432" s="28"/>
-      <c r="O432" s="26"/>
-    </row>
-    <row r="433" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N433" s="28"/>
-      <c r="O433" s="26"/>
-    </row>
-    <row r="434" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N434" s="28"/>
-      <c r="O434" s="26"/>
-    </row>
-    <row r="435" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N435" s="28"/>
-      <c r="O435" s="26"/>
-    </row>
-    <row r="436" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N436" s="25"/>
-    </row>
-    <row r="437" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N437" s="25"/>
-    </row>
-    <row r="438" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N438" s="25"/>
-    </row>
-    <row r="439" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N439" s="25"/>
-    </row>
-    <row r="440" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N440" s="25"/>
-    </row>
-    <row r="441" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N441" s="25"/>
-    </row>
-    <row r="442" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N442" s="25"/>
-    </row>
-    <row r="443" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N443" s="25"/>
-    </row>
-    <row r="444" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N444" s="25"/>
-    </row>
-    <row r="445" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N445" s="25"/>
-    </row>
-    <row r="446" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N446" s="25"/>
-    </row>
-    <row r="447" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N447" s="25"/>
-    </row>
-    <row r="448" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N448" s="25"/>
-    </row>
-    <row r="449" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N449" s="25"/>
-    </row>
-    <row r="450" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N450" s="25"/>
-    </row>
-    <row r="451" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N451" s="25"/>
-    </row>
-    <row r="452" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N452" s="25"/>
-    </row>
-    <row r="453" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N453" s="25"/>
-    </row>
-    <row r="454" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N454" s="25"/>
-    </row>
-    <row r="455" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N455" s="25"/>
-    </row>
-    <row r="456" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N456" s="25"/>
-    </row>
-    <row r="457" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N457" s="25"/>
-    </row>
-    <row r="458" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N458" s="25"/>
-    </row>
-    <row r="459" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N459" s="25"/>
-    </row>
-    <row r="460" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N460" s="25"/>
-    </row>
-    <row r="461" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N461" s="25"/>
-    </row>
-    <row r="462" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N462" s="25"/>
+    <row r="429" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N429" s="27"/>
+      <c r="O429" s="25"/>
+    </row>
+    <row r="430" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N430" s="27"/>
+      <c r="O430" s="25"/>
+    </row>
+    <row r="431" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N431" s="27"/>
+      <c r="O431" s="25"/>
+    </row>
+    <row r="432" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N432" s="27"/>
+      <c r="O432" s="25"/>
+    </row>
+    <row r="433" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N433" s="27"/>
+      <c r="O433" s="25"/>
+    </row>
+    <row r="434" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N434" s="27"/>
+      <c r="O434" s="25"/>
+    </row>
+    <row r="435" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N435" s="27"/>
+      <c r="O435" s="25"/>
+    </row>
+    <row r="436" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N436" s="24"/>
+    </row>
+    <row r="437" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N437" s="24"/>
+    </row>
+    <row r="438" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N438" s="24"/>
+    </row>
+    <row r="439" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N439" s="24"/>
+    </row>
+    <row r="440" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N440" s="24"/>
+    </row>
+    <row r="441" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N441" s="24"/>
+    </row>
+    <row r="442" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N442" s="24"/>
+    </row>
+    <row r="443" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N443" s="24"/>
+    </row>
+    <row r="444" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N444" s="24"/>
+    </row>
+    <row r="445" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N445" s="24"/>
+    </row>
+    <row r="446" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N446" s="24"/>
+    </row>
+    <row r="447" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N447" s="24"/>
+    </row>
+    <row r="448" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N448" s="24"/>
+    </row>
+    <row r="449" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N449" s="24"/>
+    </row>
+    <row r="450" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N450" s="24"/>
+    </row>
+    <row r="451" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N451" s="24"/>
+    </row>
+    <row r="452" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N452" s="24"/>
+    </row>
+    <row r="453" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N453" s="24"/>
+    </row>
+    <row r="454" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N454" s="24"/>
+    </row>
+    <row r="455" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N455" s="24"/>
+    </row>
+    <row r="456" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N456" s="24"/>
+    </row>
+    <row r="457" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N457" s="24"/>
+    </row>
+    <row r="458" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N458" s="24"/>
+    </row>
+    <row r="459" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N459" s="24"/>
+    </row>
+    <row r="460" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N460" s="24"/>
+    </row>
+    <row r="461" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N461" s="24"/>
+    </row>
+    <row r="462" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N462" s="24"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="sg4+WdAv0rTsXX7S2l28FD8pOjr2WXKBuFK+fbNM40Lk17O/fGNG555B3TdK2Ql2pcC495v26biPpD1j8tl9+w==" saltValue="kioi11kCqnayxesUr1J+QQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
